--- a/functions/schema/KQKD_Income Statement_all_accounts.xlsx
+++ b/functions/schema/KQKD_Income Statement_all_accounts.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:E275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,9 @@
       <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -464,6 +467,11 @@
           <t>doanh thu bán hàng và cung cấp dịch vụ</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>doanh thu thuần về bán hàng và cung cấp dịch vụ</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -484,6 +492,11 @@
           <t>các khoản giảm trừ doanh thu</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>doanh thu thuần về bán hàng và cung cấp dịch vụ</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -504,6 +517,11 @@
           <t>doanh thu thuần về bán hàng và cung cấp dịch vụ</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lợi nhuận gộp về bán hàng và cung cấp dịch vụ</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -524,6 +542,11 @@
           <t>giá vốn hàng bán</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lợi nhuận gộp về bán hàng và cung cấp dịch vụ</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -544,6 +567,11 @@
           <t>lợi nhuận gộp về bán hàng và cung cấp dịch vụ</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -564,6 +592,11 @@
           <t>doanh thu hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -584,6 +617,11 @@
           <t>chi phí tài chính</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -604,6 +642,11 @@
           <t>trong đó chi phí lãi vay</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>trong đó chi phí lãi vay</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -624,6 +667,11 @@
           <t>phần lãi lỗ trong công ty liên doanh liên kết</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -644,6 +692,11 @@
           <t>chi phí bán hàng</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -664,6 +717,11 @@
           <t>chi phí quản lý doanh nghiệp</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -684,6 +742,11 @@
           <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>tổng lợi nhuận kế toán trước thuế</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -704,6 +767,11 @@
           <t>thu nhập khác</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>lợi nhuận khác</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -724,6 +792,11 @@
           <t>chi phí khác</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>lợi nhuận khác</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -744,6 +817,11 @@
           <t>lợi nhuận khác</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>tổng lợi nhuận kế toán trước thuế</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -764,6 +842,11 @@
           <t>phần lợi nhuận lỗ từ công ty liên kết liên doanh</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>tổng lợi nhuận kế toán trước thuế</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -784,6 +867,11 @@
           <t>tổng lợi nhuận kế toán trước thuế</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -804,6 +892,11 @@
           <t>chi phí thuế tndn hiện hành</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -824,6 +917,11 @@
           <t>chi phí thuế tndn hoãn lại</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -844,6 +942,11 @@
           <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -864,6 +967,11 @@
           <t>lợi ích của cổ đông thiểu số</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -884,6 +992,11 @@
           <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -904,6 +1017,11 @@
           <t>lãi cơ bản trên cổ phiếu vnð</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>lãi cơ bản trên cổ phiếu vnð</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -924,6 +1042,11 @@
           <t>lãi suy giảm trên cổ phiếu</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>lãi suy giảm trên cổ phiếu</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -936,6 +1059,11 @@
           <t>1 doanh thu</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3 doanh thu thuần về hoạt động kinh doanh 10 01 02</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -948,6 +1076,11 @@
           <t>2 các khoản giảm trừ doanh thu</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3 doanh thu thuần về hoạt động kinh doanh 10 01 02</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -960,6 +1093,11 @@
           <t>3 doanh thu thuần về hoạt động kinh doanh 10 01 02</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>5 lợi nhuận gộp từ hoạt động kinh doanh 20 10 11</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -972,6 +1110,11 @@
           <t>4 chi phí hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5 lợi nhuận gộp từ hoạt động kinh doanh 20 10 11</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -984,6 +1127,11 @@
           <t>5 lợi nhuận gộp từ hoạt động kinh doanh 20 10 11</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>9 lợi nhuận thuần từ hoạt động kinh doanh 30 20 21 22 24 25</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -996,6 +1144,11 @@
           <t>6 doanh thu hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>9 lợi nhuận thuần từ hoạt động kinh doanh 30 20 21 22 24 25</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1008,6 +1161,11 @@
           <t>7 chi phí tài chính</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>9 lợi nhuận thuần từ hoạt động kinh doanh 30 20 21 22 24 25</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1020,6 +1178,11 @@
           <t>trong đó chi phí lãi vay</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>trong đó chi phí lãi vay</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1032,6 +1195,11 @@
           <t>8 chi phí quản lý doanh nghiệp</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>9 lợi nhuận thuần từ hoạt động kinh doanh 30 20 21 22 24 25</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1044,6 +1212,11 @@
           <t>9 lợi nhuận thuần từ hoạt động kinh doanh 30 20 21 22 24 25</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>13 tổng lợi nhuận kế toán trước thuế 50 30 40 41</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1056,6 +1229,11 @@
           <t>10 thu nhập khác</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>12 lợi nhuận khác 40 31 32</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1068,6 +1246,11 @@
           <t>11 chi phí khác</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>12 lợi nhuận khác 40 31 32</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1080,6 +1263,11 @@
           <t>12 lợi nhuận khác 40 31 32</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>13 tổng lợi nhuận kế toán trước thuế 50 30 40 41</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1092,6 +1280,11 @@
           <t>13 tổng lợi nhuận kế toán trước thuế 50 30 40 41</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>16 lợi nhuận sau thuế thu nhập doanh nghiệp 60 50 51 52</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1104,6 +1297,11 @@
           <t>14 chi phí thuế tndn hiện hành</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>16 lợi nhuận sau thuế thu nhập doanh nghiệp 60 50 51 52</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1116,6 +1314,11 @@
           <t>15 chi phí thuế tndn hoãn lại</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>16 lợi nhuận sau thuế thu nhập doanh nghiệp 60 50 51 52</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1128,6 +1331,11 @@
           <t>16 lợi nhuận sau thuế thu nhập doanh nghiệp 60 50 51 52</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>16 lợi nhuận sau thuế thu nhập doanh nghiệp 60 50 51 52</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1140,6 +1348,11 @@
           <t>lãi cơ bản trên cổ phiếu báo cáo tài chính</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>lãi cơ bản trên cổ phiếu báo cáo tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1160,6 +1373,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>doanh thu phí bảo hiểm thuần 03 01 02</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1180,6 +1398,11 @@
           <t>thu phí bảo hiểm gốc</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1200,6 +1423,11 @@
           <t>thu phí nhận tái bảo hiểm</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1220,6 +1448,11 @@
           <t>tăng giảm dự phòng phí bảo hiểm gốc và nhận tái bảo hiểm</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1240,6 +1473,11 @@
           <t>phí nhượng tái bảo hiểm</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>doanh thu phí bảo hiểm thuần 03 01 02</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1260,6 +1498,11 @@
           <t>phí nhượng tái bảo hiểm</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>phí nhượng tái bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1280,6 +1523,11 @@
           <t>tăng giảm dự phòng phí nhượng tái bảo hiểm</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>phí nhượng tái bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1300,6 +1548,11 @@
           <t>các khoản giảm trừ</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>doanh thu phí bảo hiểm thuần 03 01 02</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1320,6 +1573,11 @@
           <t>giảm phí bảo hiểm</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>các khoản giảm trừ</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1340,6 +1598,11 @@
           <t>hoàn phí bảo hiểm</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>các khoản giảm trừ</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1360,6 +1623,11 @@
           <t>các khoản giảm trừ khác</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>các khoản giảm trừ</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1380,6 +1648,11 @@
           <t>tăng giảm dự phòng phí dự phòng toán học</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>doanh thu phí bảo hiểm thuần 03 01 02</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1400,6 +1673,11 @@
           <t>doanh thu phí bảo hiểm thuần 03 01 02</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>doanh thu thuần hđkd bh 10 03 04</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1420,6 +1698,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>doanh thu thuần hđkd bh 10 03 04</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1440,6 +1723,11 @@
           <t>thu hoa hồng nhượng tái bảo hiểm</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1460,6 +1748,11 @@
           <t>thu khác hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1480,6 +1773,11 @@
           <t>thu khác nhận tái bảo hiểm</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>thu khác hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1500,6 +1798,11 @@
           <t>thu khác nhượng tái bảo hiểm</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>thu khác hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1520,6 +1823,11 @@
           <t>thu khác giám định đại lý</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>thu khác hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1540,6 +1848,11 @@
           <t>doanh thu thuần hđkd bh 10 03 04</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>lợi nhuận gộp hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1560,6 +1873,11 @@
           <t>doanh thuần bh và ccdv</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>doanh thu thuần hđkd bh 10 03 04</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1580,6 +1898,11 @@
           <t>chi bồi thường</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1600,6 +1923,11 @@
           <t>tổng chi bồi thường</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>giá vốn cung cấp hàng hóa dịch vụ khác</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1620,6 +1948,11 @@
           <t>chi bồi thường bảo hiểm gốc trả tiền bảo hiểm</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>chi bồi thường</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1640,6 +1973,11 @@
           <t>chi bồi thường nhận tái bảo hiểm trả tiền bảo hiểm</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>chi bồi thường</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1660,6 +1998,11 @@
           <t>các khoản giảm trừ</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>chi bồi thường</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1680,6 +2023,11 @@
           <t>thu đòi người thứ ba bồi hoàn</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>các khoản giảm trừ</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1700,6 +2048,11 @@
           <t>thu hàng đã xử lý bồi thường 100</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>các khoản giảm trừ</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1720,6 +2073,11 @@
           <t>thu bồi thường nhượng tái bảo hiểm</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1740,6 +2098,11 @@
           <t>tăng giảm dự phòng toán học dành riêng bvh</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1760,6 +2123,11 @@
           <t>tăng giảm dự phòng bồi thường bảo hiểm gốc và nhận tái bảo hiểm</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1780,6 +2148,11 @@
           <t>tăng giảm dự phòng bồi thường nhượng tái bảo hiểm</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1800,6 +2173,11 @@
           <t>tăng giảm dự phòng bồi thường</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1820,6 +2198,11 @@
           <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1840,6 +2223,11 @@
           <t>tăng giảm dự phòng dao động lớn</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1860,6 +2248,11 @@
           <t>chi bồi thường từ dự phòng dao động lớn</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -1880,6 +2273,11 @@
           <t>chi khác hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -1900,6 +2298,11 @@
           <t>chi hoa hồng bảo hiểm</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>chi khác hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -1920,6 +2323,11 @@
           <t>chi phí khác hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>chi khác hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -1940,6 +2348,11 @@
           <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>chi phí khác hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -1960,6 +2373,11 @@
           <t>chi giám định tổn thất</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -1980,6 +2398,11 @@
           <t>chi đòi người thứ 3</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2000,6 +2423,11 @@
           <t>chi xử lý hàng bồi thường 100</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2020,6 +2448,11 @@
           <t>chi đánh giá rủi ro của đối tượng bảo hiểm</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2040,6 +2473,11 @@
           <t>chi đề phòng hạn chế rủi ro tổn thất</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2060,6 +2498,11 @@
           <t>chi khác</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2080,6 +2523,11 @@
           <t>chi khác hoạt động kinh doanh nhận tái bảo hiểm</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>chi phí khác hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2100,6 +2548,11 @@
           <t>chi hoa hồng nhận tái bảo hiểm</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>chi khác hoạt động kinh doanh nhận tái bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2120,6 +2573,11 @@
           <t>chi đánh giá rủi ro của đối tượng bảo hiểm</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>chi khác hoạt động kinh doanh nhận tái bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2140,6 +2598,11 @@
           <t>chi khác</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>chi khác hoạt động kinh doanh nhận tái bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2160,6 +2623,11 @@
           <t>chi hoạt động nhượng tái bảo hiểm</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>chi phí khác hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2180,6 +2648,11 @@
           <t>chi phí trực tiếp kinh doanh hoạt động khác</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>chi phí khác hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2200,6 +2673,11 @@
           <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>lợi nhuận gộp hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2220,6 +2698,11 @@
           <t>giá vốn cung cấp hàng hóa dịch vụ khác</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>giá vốn cung cấp hàng hóa dịch vụ khác</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2240,6 +2723,11 @@
           <t>lợi nhuận gộp hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2260,6 +2748,11 @@
           <t>lợi nhuận gộp cung cấp hàng hóa dịch vụ khác</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>giá vốn cung cấp hàng hóa dịch vụ khác</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2280,6 +2773,11 @@
           <t>lợi nhuận thuần hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>tổng lợi nhuận kế toán trước thuế</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2300,6 +2798,11 @@
           <t>doanh thu kinh doanh bất động sản đầu tư</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động đầu tư bất động sản 22 20 21</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2320,6 +2823,11 @@
           <t>giá vốn bất động sản đầu tư</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động đầu tư bất động sản 22 20 21</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2340,6 +2848,11 @@
           <t>lợi nhuận từ hoạt động đầu tư bất động sản 22 20 21</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2360,6 +2873,11 @@
           <t>doanh thu hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>lợi nhuận gộp hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2380,6 +2898,11 @@
           <t>chi hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>lợi nhuận gộp hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2400,6 +2923,11 @@
           <t>dự phòng toán học trích lãi từ đầu tư</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>chi hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2420,6 +2948,11 @@
           <t>dự phòng chia lãi</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>chi hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2440,6 +2973,11 @@
           <t>chi khác hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>chi hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2460,6 +2998,11 @@
           <t>lợi nhuận gộp hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2480,6 +3023,11 @@
           <t>chi phí bán hàng</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần hoạt động kinh doanh bảo hiểm</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2500,6 +3048,11 @@
           <t>chi phí quản lý doanh nghiệp</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2520,6 +3073,11 @@
           <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>tổng lợi nhuận kế toán trước thuế</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2540,6 +3098,11 @@
           <t>thu nhập khác</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>lợi nhuận khác</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2560,6 +3123,11 @@
           <t>chi phí khác</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>lợi nhuận khác</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2580,6 +3148,11 @@
           <t>lợi nhuận khác</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>tổng lợi nhuận kế toán trước thuế</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2600,6 +3173,11 @@
           <t>phần lợi nhuận lỗ từ công ty liên kết liên doanh</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>tổng lợi nhuận kế toán trước thuế</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2620,6 +3198,11 @@
           <t>tổng lợi nhuận kế toán trước thuế</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2640,6 +3223,11 @@
           <t>các khoản điều chỉnh tăng hoặc giảm lợi nhuận để xác định lợi nhuận chịu thuế tndn</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>tổng lợi nhuận trước thuế thu nhập doanh nghiệp</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2660,6 +3248,11 @@
           <t>tổng lợi nhuận trước thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>lợi nhuận chịu thuế thu nhập doanh nghiệp</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2680,6 +3273,11 @@
           <t>dự phòng đảm bảo cân đối</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2700,6 +3298,11 @@
           <t>lợi nhuận chịu thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>lợi nhuận chịu thuế thu nhập doanh nghiệp</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2720,6 +3323,11 @@
           <t>chi phí thuế thu nhập hiện hành</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -2740,6 +3348,11 @@
           <t>chi phí thuế thu nhập hoãn lại</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -2760,6 +3373,11 @@
           <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2780,6 +3398,11 @@
           <t>lợi ích của cổ đông thiểu số</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -2800,6 +3423,11 @@
           <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2820,6 +3448,11 @@
           <t>vnð</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>vnð</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -2840,6 +3473,11 @@
           <t>doanh thu hoạt động</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -2860,6 +3498,11 @@
           <t>lãi từ các tài sản tài chính ghi nhận thông qua lãi lỗ fvtpl</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động 01 11</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -2880,6 +3523,11 @@
           <t>lãi bán các tài sản tài chính</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>lãi từ các tài sản tài chính ghi nhận thông qua lãi lỗ fvtpl</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -2900,6 +3548,11 @@
           <t>chênh lệch tăng đánh giá lại các tstc thông qua lãi lỗ</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>lãi từ các tài sản tài chính ghi nhận thông qua lãi lỗ fvtpl</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -2920,6 +3573,11 @@
           <t>cổ tức tiền lãi phát sinh từ tài sản tài chính pvtpl</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>lãi từ các tài sản tài chính ghi nhận thông qua lãi lỗ fvtpl</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -2932,6 +3590,11 @@
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>lãi từ các tài sản tài chính ghi nhận thông qua lãi lỗ fvtpl</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -2952,6 +3615,11 @@
           <t>lãi từ các khoản đầu tư nắm giữ đến ngày đáo hạn htm</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động 01 11</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -2972,6 +3640,11 @@
           <t>lãi từ các khoản cho vay và phải thu</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động 01 11</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -2992,6 +3665,11 @@
           <t>lãi từ các tài sản tài chính sẵn sàng để bán afs</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động 01 11</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3012,6 +3690,11 @@
           <t>lãi từ các công cụ phái sinh phòng ngừa rủi ro</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động 01 11</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3032,6 +3715,11 @@
           <t>doanh thu môi giới chứng khoán</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động 01 11</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3052,6 +3740,11 @@
           <t>doanh thu hoạt động đầu tư chứng khoán góp vốn</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động 01 11</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3072,6 +3765,11 @@
           <t>doanh thu bảo lãnh phát hành đại lý phát hành chứng khoán</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động 01 11</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3092,6 +3790,11 @@
           <t>doanh thu quản lý danh mục đầu tư cho người uỷ thác đầu tư</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động 01 11</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3112,6 +3815,11 @@
           <t>doanh thu hoạt động tư vấn</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động 01 11</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3132,6 +3840,11 @@
           <t>doanh thu hoạt động ủy thác đấu giá</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động 01 11</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3152,6 +3865,11 @@
           <t>doanh thu lưu ký chứng khoán</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động 01 11</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3172,6 +3890,11 @@
           <t>doanh thu cho thuê sử dụng tài sản</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động 01 11</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3192,6 +3915,11 @@
           <t>thu nhập hoạt động khác</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động 01 11</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3212,6 +3940,11 @@
           <t>các khoản giảm trừ doanh thu</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>doanh thu thuần</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3232,6 +3965,11 @@
           <t>cộng doanh thu hoạt động 01 11</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>kết quả hoạt động 20 50 40 60 61 62</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3252,6 +3990,11 @@
           <t>doanh thu thuần</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>lợi nhuận gộp của hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3272,6 +4015,11 @@
           <t>chi phí hoạt động</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3292,6 +4040,11 @@
           <t>lỗ các tài sản tài chính ghi nhận thông qua lỗ fvtpl</t>
         </is>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3312,6 +4065,11 @@
           <t>lỗ bán các tài sản tài chính</t>
         </is>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3332,6 +4090,11 @@
           <t>chênh lệch giảm đánh giá lại các tstc thông qua lãi lỗ</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3352,6 +4115,11 @@
           <t>chi phí giao dịch mua các tài sản tài chính fvtpl</t>
         </is>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3364,6 +4132,11 @@
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3384,6 +4157,11 @@
           <t>lỗ các khoản đầu tư năm giữ đến ngày đáo hạn htm</t>
         </is>
       </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -3404,6 +4182,11 @@
           <t>chi phí lãi vay lỗ từ các khoản cho vay và phải thu</t>
         </is>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -3424,6 +4207,11 @@
           <t>4 lỗ bán các tài sản tài chính sẵn sàng để bán afs</t>
         </is>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3444,6 +4232,11 @@
           <t>lỗ từ các tài sản tài chính phái sinh phòng ngừa rủi ro</t>
         </is>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -3464,6 +4257,11 @@
           <t>chi phí hoạt động tự doanh</t>
         </is>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3484,6 +4282,11 @@
           <t>chi phí môi giới chứng khoán</t>
         </is>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -3504,6 +4307,11 @@
           <t>chi phí hoạt động bảo lãnh đại lý phát hành chứng khoán</t>
         </is>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -3524,6 +4332,11 @@
           <t>chi phí tư vấn</t>
         </is>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3544,6 +4357,11 @@
           <t>chi phí hoạt động đấu giá ủy thác</t>
         </is>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -3564,6 +4382,11 @@
           <t>chi phí lưu ký chứng khoán</t>
         </is>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -3584,6 +4407,11 @@
           <t>chi phí khác</t>
         </is>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -3604,6 +4432,11 @@
           <t>trong đó chi phí sửa lỗi giao dịch chứng khoán lỗi khác</t>
         </is>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -3624,6 +4457,11 @@
           <t>chi phí trực tiếp hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -3644,6 +4482,11 @@
           <t>chi phí dự phòng chứng khoán</t>
         </is>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>cộng chi phí hoạt động 21 33</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -3664,6 +4507,11 @@
           <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>kết quả hoạt động 20 50 40 60 61 62</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -3684,6 +4532,11 @@
           <t>lợi nhuận gộp của hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>kết quả hoạt động 20 50 40 60 61 62</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -3704,6 +4557,11 @@
           <t>doanh thu hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -3724,6 +4582,11 @@
           <t>chênh lệch lãi tỷ giá hối đoái đã và chưa thực hiện</t>
         </is>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động tài chính 41 44</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -3744,6 +4607,11 @@
           <t>doanh thu dự thu cổ tức lãi tiền gửi không cố định phát sinh trong kỳ</t>
         </is>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động tài chính 41 44</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -3764,6 +4632,11 @@
           <t>lãi bán thanh lý các khoản đầu tư vào công ty con liên kết liên doanh</t>
         </is>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động tài chính 41 44</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -3784,6 +4657,11 @@
           <t>doanh thu khác về đầu tư</t>
         </is>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>cộng doanh thu hoạt động tài chính 41 44</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -3804,6 +4682,11 @@
           <t>cộng doanh thu hoạt động tài chính 41 44</t>
         </is>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>kết quả hoạt động 20 50 40 60 61 62</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -3824,6 +4707,11 @@
           <t>chí phí tài chính</t>
         </is>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -3844,6 +4732,11 @@
           <t>chênh lệch lỗ tỷ giá hối đoái đã và chưa thưc hiện</t>
         </is>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>cộng chi phí tài chính 51 54</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -3864,6 +4757,11 @@
           <t>chi phí lãi vay</t>
         </is>
       </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>cộng chi phí tài chính 51 54</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -3884,6 +4782,11 @@
           <t>lỗ bán thanh lý các khoản đầu tư vào công ty con liên kết liên doanh</t>
         </is>
       </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>cộng chi phí tài chính 51 54</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -3904,6 +4807,11 @@
           <t>chi phí đầu tư khác</t>
         </is>
       </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>cộng chi phí tài chính 51 54</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -3924,6 +4832,11 @@
           <t>cộng chi phí tài chính 51 54</t>
         </is>
       </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>kết quả hoạt động 20 50 40 60 61 62</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -3944,6 +4857,11 @@
           <t>chi phí bán hàng</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>kết quả hoạt động 20 50 40 60 61 62</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -3964,6 +4882,11 @@
           <t>chi phí quản lý công ty chứng khoán</t>
         </is>
       </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>kết quả hoạt động 20 50 40 60 61 62</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -3984,6 +4907,11 @@
           <t>kết quả hoạt động 20 50 40 60 61 62</t>
         </is>
       </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>tổng lợi nhuận kế toán trước thuế 70 80</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -4004,6 +4932,11 @@
           <t>thu nhập khác và chi phí khác</t>
         </is>
       </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4024,6 +4957,11 @@
           <t>thu nhập khác</t>
         </is>
       </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>cộng kết quả hoạt động khác 71 72</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4031,15 +4969,20 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
+          <t>other expenses</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
           <t>other profit</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>profit before tax</t>
-        </is>
-      </c>
       <c r="D189" t="inlineStr">
+        <is>
+          <t>chi phí khác</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
         <is>
           <t>cộng kết quả hoạt động khác 71 72</t>
         </is>
@@ -4051,7 +4994,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>share of associates and joint ventures result</t>
+          <t>other profit</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4061,7 +5004,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>lãi lỗ từ công ty liên doanh liên kết</t>
+          <t>cộng kết quả hoạt động khác 71 72</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>tổng lợi nhuận kế toán trước thuế 70 80</t>
         </is>
       </c>
     </row>
@@ -4071,15 +5019,20 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
+          <t>share of associates and joint ventures result</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
           <t>profit before tax</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>net profit after tax</t>
-        </is>
-      </c>
       <c r="D191" t="inlineStr">
+        <is>
+          <t>lãi lỗ từ công ty liên doanh liên kết</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
         <is>
           <t>tổng lợi nhuận kế toán trước thuế 70 80</t>
         </is>
@@ -4091,17 +5044,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>realised profit</t>
+          <t>profit before tax</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>net profit after tax</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>lợi nhuận đã thực hiện</t>
+          <t>tổng lợi nhuận kế toán trước thuế 70 80</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>lợi nhuận kế toán sau thuế tndn 90 100</t>
         </is>
       </c>
     </row>
@@ -4111,7 +5069,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>unrealised profit</t>
+          <t>realised profit</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4121,7 +5079,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>lợi nhuận chưa thực hiện</t>
+          <t>lợi nhuận đã thực hiện</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -4131,17 +5094,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>corporate income tax</t>
+          <t>unrealised profit</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>net profit after tax</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>chi phí thuế thu nhập doanh nghiệp</t>
+          <t>lợi nhuận chưa thực hiện</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -4151,17 +5119,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>current corporate income tax expenses</t>
+          <t>corporate income tax</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>corporate income tax</t>
+          <t>net profit after tax</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>chi phí thuế tndn hiện hành</t>
+          <t>chi phí thuế thu nhập doanh nghiệp</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>lợi nhuận kế toán sau thuế tndn 90 100</t>
         </is>
       </c>
     </row>
@@ -4171,7 +5144,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>deferred income tax expenses</t>
+          <t>current corporate income tax expenses</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4181,7 +5154,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>chi phí thuế tndn hoãn lại</t>
+          <t>chi phí thuế tndn hiện hành</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>chi phí thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
     </row>
@@ -4191,17 +5169,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>net profit after tax</t>
+          <t>deferred income tax expenses</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2 profit after tax for shareholders of the parents company</t>
+          <t>corporate income tax</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>lợi nhuận kế toán sau thuế tndn 90 100</t>
+          <t>chi phí thuế tndn hoãn lại</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>chi phí thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
     </row>
@@ -4211,15 +5194,20 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
+          <t>net profit after tax</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
           <t>2 profit after tax for shareholders of the parents company</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>2 profit after tax for shareholders of the parents company</t>
-        </is>
-      </c>
       <c r="D198" t="inlineStr">
+        <is>
+          <t>lợi nhuận kế toán sau thuế tndn 90 100</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>lợi nhuận sau thuế phân bổ cho chủ sở hữu</t>
         </is>
@@ -4231,17 +5219,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>profit after tax taken from funds</t>
+          <t>2 profit after tax for shareholders of the parents company</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>2 profit after tax for shareholders of the parents company</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế trích các quỹ quỹ dự trữ điều lệ quỹ dự phòng tài chính và rủi ro nghề nghiệp theo quy định của điều lệ công ty là</t>
+          <t>lợi nhuận sau thuế phân bổ cho chủ sở hữu</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế phân bổ cho chủ sở hữu</t>
         </is>
       </c>
     </row>
@@ -4251,17 +5244,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>1 minority interest</t>
+          <t>profit after tax taken from funds</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2 profit after tax for shareholders of the parents company</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần phân bổ cho lợi ích cổ đông không kiểm soát</t>
+          <t>lợi nhuận sau thuế trích các quỹ quỹ dự trữ điều lệ quỹ dự phòng tài chính và rủi ro nghề nghiệp theo quy định của điều lệ công ty là</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -4271,17 +5269,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>other comprehensive income after tax</t>
+          <t>1 minority interest</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>2 profit after tax for shareholders of the parents company</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>thu nhập lỗ toàn diện khác sau thuế tndn</t>
+          <t>lợi nhuận thuần phân bổ cho lợi ích cổ đông không kiểm soát</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế phân bổ cho chủ sở hữu</t>
         </is>
       </c>
     </row>
@@ -4291,7 +5294,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>gains loss from revaluation of held to maturity investments</t>
+          <t>other comprehensive income after tax</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4301,7 +5304,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>lãi lỗ từ đánh giá lại các khoản đầu tư giữ đến ngày đáo hạn</t>
+          <t>thu nhập lỗ toàn diện khác sau thuế tndn</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -4311,7 +5319,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>gains loss from revaluation of availables for sale financial assets</t>
+          <t>gains loss from revaluation of held to maturity investments</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4321,7 +5329,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>lãi lỗ từ đánh giá lại các tài sản tài chính sẵn sàng để bán</t>
+          <t>lãi lỗ từ đánh giá lại các khoản đầu tư giữ đến ngày đáo hạn</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -4331,7 +5344,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>other total gains loss are dividend from investments in subsidiaries associates joint ventures</t>
+          <t>gains loss from revaluation of availables for sale financial assets</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4341,7 +5354,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>lãi lỗ toàn diện khác được chia từ hoạt động đầu tư vào công ty con đầu tư liên kết liên doanh</t>
+          <t>lãi lỗ từ đánh giá lại các tài sản tài chính sẵn sàng để bán</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -4351,7 +5369,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>gains loss from revaluation of derivative financial tools</t>
+          <t>other total gains loss are dividend from investments in subsidiaries associates joint ventures</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4361,7 +5379,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>lãi lỗ từ đánh giá lại các công cụ tài chính phái sinh</t>
+          <t>lãi lỗ toàn diện khác được chia từ hoạt động đầu tư vào công ty con đầu tư liên kết liên doanh</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -4371,7 +5394,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>gains loss from realized and unrealized loss from changes in foreign exchange rates</t>
+          <t>gains loss from revaluation of derivative financial tools</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4381,7 +5404,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>lãi lỗ chênh lệch tỷ giá của hoạt động tại nước ngoài</t>
+          <t>lãi lỗ từ đánh giá lại các công cụ tài chính phái sinh</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -4391,7 +5419,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>gains loss from investments in subsidiaries associates joint ventures are not yet divided</t>
+          <t>gains loss from realized and unrealized loss from changes in foreign exchange rates</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4401,7 +5429,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>công ty liên kết liên doanh chưa chia</t>
+          <t>lãi lỗ chênh lệch tỷ giá của hoạt động tại nước ngoài</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -4411,7 +5444,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>gains loss from revaluation of derivative tools</t>
+          <t>gains loss from investments in subsidiaries associates joint ventures are not yet divided</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4421,7 +5454,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>lãi lỗ đánh giá công cụ phái sinh</t>
+          <t>công ty liên kết liên doanh chưa chia</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -4431,7 +5469,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>gains loss from revaluation fixed assets by reasonable value model</t>
+          <t>gains loss from revaluation of derivative tools</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4441,7 +5479,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>lãi lỗ đánh giá lại tài sản cố định theo mô hình giá trị hợp lý</t>
+          <t>lãi lỗ đánh giá công cụ phái sinh</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -4451,7 +5494,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>total other comprehensive income</t>
+          <t>gains loss from revaluation fixed assets by reasonable value model</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4461,7 +5504,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>tổng thu nhập toàn diện</t>
+          <t>lãi lỗ đánh giá lại tài sản cố định theo mô hình giá trị hợp lý</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -4471,7 +5519,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>other comprehensive income attribute to the parent company s owners</t>
+          <t>total other comprehensive income</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4481,7 +5529,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>thu nhập toàn diện phân bổ cho chủ sở hữu</t>
+          <t>tổng thu nhập toàn diện</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -4491,7 +5544,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>other comprehensive income attribute to non controling interest</t>
+          <t>other comprehensive income attribute to the parent company s owners</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4501,7 +5554,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>thu nhập toàn diện phân bổ cho cổ đông không nắm quyền kiểm soát</t>
+          <t>thu nhập toàn diện phân bổ cho chủ sở hữu</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -4511,7 +5569,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>net income appropriated to ordinary shareholders</t>
+          <t>other comprehensive income attribute to non controling interest</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4521,7 +5579,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>thu nhập thuần trên cổ phiếu phổ thông</t>
+          <t>thu nhập toàn diện phân bổ cho cổ đông không nắm quyền kiểm soát</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -4531,17 +5594,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>earning per share vnd</t>
+          <t>net income appropriated to ordinary shareholders</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>earning per share vnd</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>lãi cơ bản trên cổ phiếu đồng 1 cổ phiếu vnð</t>
+          <t>thu nhập thuần trên cổ phiếu phổ thông</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -4551,17 +5619,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>diluted earning per share</t>
+          <t>earning per share vnd</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>diluted earning per share</t>
+          <t>earning per share vnd</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>thu nhập pha loãng trên cổ phiếu đồng 1 cổ phiếu</t>
+          <t>lãi cơ bản trên cổ phiếu đồng 1 cổ phiếu vnð</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>lãi cơ bản trên cổ phiếu đồng 1 cổ phiếu vnð</t>
         </is>
       </c>
     </row>
@@ -4571,17 +5644,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>interest income and similar income</t>
+          <t>diluted earning per share</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>net interest income</t>
+          <t>diluted earning per share</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>thu nhập lãi và các khoản thu nhập tương tự</t>
+          <t>thu nhập pha loãng trên cổ phiếu đồng 1 cổ phiếu</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>thu nhập pha loãng trên cổ phiếu đồng 1 cổ phiếu</t>
         </is>
       </c>
     </row>
@@ -4591,7 +5669,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>interest expense and similar expenses</t>
+          <t>interest income and similar income</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4601,7 +5679,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>chi phí lãi và các chi phí tương tự</t>
+          <t>thu nhập lãi và các khoản thu nhập tương tự</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>thu nhập lãi thuần</t>
         </is>
       </c>
     </row>
@@ -4611,15 +5694,20 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
+          <t>interest expense and similar expenses</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
           <t>net interest income</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>operating profit before provision for credit losses</t>
-        </is>
-      </c>
       <c r="D218" t="inlineStr">
+        <is>
+          <t>chi phí lãi và các chi phí tương tự</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
         <is>
           <t>thu nhập lãi thuần</t>
         </is>
@@ -4631,17 +5719,22 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>fee and commission income</t>
+          <t>net interest income</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>net fee and commission income</t>
+          <t>operating profit before provision for credit losses</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>thu nhập từ hoạt động dịch vụ</t>
+          <t>thu nhập lãi thuần</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
       </c>
     </row>
@@ -4651,7 +5744,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>fee and commission expenses</t>
+          <t>fee and commission income</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4661,7 +5754,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>chi phí hoạt động dịch vụ</t>
+          <t>thu nhập từ hoạt động dịch vụ</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>lãi lỗ thuần từ hoạt động dịch vụ</t>
         </is>
       </c>
     </row>
@@ -4671,15 +5769,20 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
+          <t>fee and commission expenses</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
           <t>net fee and commission income</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>operating profit before provision for credit losses</t>
-        </is>
-      </c>
       <c r="D221" t="inlineStr">
+        <is>
+          <t>chi phí hoạt động dịch vụ</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
         <is>
           <t>lãi lỗ thuần từ hoạt động dịch vụ</t>
         </is>
@@ -4691,7 +5794,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>net gain loss from foreign currencies and gold trading</t>
+          <t>net fee and commission income</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4701,7 +5804,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>lãi lỗ thuần từ hoạt động kinh doanh ngoại hối và vàng</t>
+          <t>lãi lỗ thuần từ hoạt động dịch vụ</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
       </c>
     </row>
@@ -4711,7 +5819,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>net gain loss from trading securities</t>
+          <t>net gain loss from foreign currencies and gold trading</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4721,7 +5829,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>lãi lỗ thuần từ mua bán chứng khoán kinh doanh</t>
+          <t>lãi lỗ thuần từ hoạt động kinh doanh ngoại hối và vàng</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
       </c>
     </row>
@@ -4731,7 +5844,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>net gain loss from investment securities</t>
+          <t>net gain loss from trading securities</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4741,7 +5854,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>lãi lỗ thuần từ mua bán chứng khoán đầu tư</t>
+          <t>lãi lỗ thuần từ mua bán chứng khoán kinh doanh</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
       </c>
     </row>
@@ -4751,17 +5869,22 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>other income</t>
+          <t>net gain loss from investment securities</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>net other income</t>
+          <t>operating profit before provision for credit losses</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>thu nhập từ hoạt động khác</t>
+          <t>lãi lỗ thuần từ mua bán chứng khoán đầu tư</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
       </c>
     </row>
@@ -4771,7 +5894,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>other expenses</t>
+          <t>other income</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4781,7 +5904,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>chi phí hoạt động khác</t>
+          <t>thu nhập từ hoạt động khác</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>lãi lỗ thuần từ hoạt động khác</t>
         </is>
       </c>
     </row>
@@ -4791,15 +5919,20 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
+          <t>other expenses</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
           <t>net other income</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>operating profit before provision for credit losses</t>
-        </is>
-      </c>
       <c r="D227" t="inlineStr">
+        <is>
+          <t>chi phí hoạt động khác</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
         <is>
           <t>lãi lỗ thuần từ hoạt động khác</t>
         </is>
@@ -4811,7 +5944,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>income from capital contribution and long term investments</t>
+          <t>net other income</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4821,7 +5954,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>thu nhập từ góp vốn mua cổ phần</t>
+          <t>lãi lỗ thuần từ hoạt động khác</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
       </c>
     </row>
@@ -4831,7 +5969,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>income from capital contribution and long term investments</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4841,7 +5979,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>chi phí hoạt động</t>
+          <t>thu nhập từ góp vốn mua cổ phần</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
       </c>
     </row>
@@ -4851,15 +5994,20 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
           <t>operating profit before provision for credit losses</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>profit before tax</t>
-        </is>
-      </c>
       <c r="D230" t="inlineStr">
+        <is>
+          <t>chi phí hoạt động</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
         <is>
           <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
@@ -4871,7 +6019,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>provision for credit losses</t>
+          <t>operating profit before provision for credit losses</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4881,7 +6029,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>chi phí dự phòng rủi ro tín dụng</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>tổng lợi nhuận trước thuế ix x</t>
         </is>
       </c>
     </row>
@@ -4891,15 +6044,20 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
+          <t>provision for credit losses</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
           <t>profit before tax</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>net profit after tax</t>
-        </is>
-      </c>
       <c r="D232" t="inlineStr">
+        <is>
+          <t>chi phí dự phòng rủi ro tín dụng</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
         <is>
           <t>tổng lợi nhuận trước thuế ix x</t>
         </is>
@@ -4911,7 +6069,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>corporate income tax</t>
+          <t>profit before tax</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -4921,7 +6079,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>chi phí thuế tndn</t>
+          <t>tổng lợi nhuận trước thuế ix x</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế xi xii</t>
         </is>
       </c>
     </row>
@@ -4931,17 +6094,22 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>net profit after tax</t>
+          <t>current corporate income tax expenses</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>net profit atttributable to the equity holders of the bank</t>
+          <t>corporate income tax</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế xi xii</t>
+          <t>chi phí thuế tndn hiện hành</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>chi phí thuế tndn</t>
         </is>
       </c>
     </row>
@@ -4951,17 +6119,22 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>minority interest</t>
+          <t>deferred income tax expenses</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>net profit atttributable to the equity holders of the bank</t>
+          <t>corporate income tax</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>lợi ích của cổ đông thiểu số</t>
+          <t>chi phí thuế tndn hoãn lại</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>chi phí thuế tndn</t>
         </is>
       </c>
     </row>
@@ -4971,17 +6144,22 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>net profit atttributable to the equity holders of the bank</t>
+          <t>corporate income tax</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>net profit atttributable to the equity holders of the bank</t>
+          <t>net profit after tax</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế của cổ đông của ngân hàng mẹ xiii xiv</t>
+          <t>chi phí thuế tndn</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế xi xii</t>
         </is>
       </c>
     </row>
@@ -4991,17 +6169,22 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>earning per share vnd</t>
+          <t>net profit after tax</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>earning per share vnd</t>
+          <t>net profit atttributable to the equity holders of the bank</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>lãi cơ bản trên cổ phiếu bctc vnð</t>
+          <t>lợi nhuận sau thuế xi xii</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế của cổ đông của ngân hàng mẹ xiii xiv</t>
         </is>
       </c>
     </row>
@@ -5011,17 +6194,22 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>realised transactions</t>
+          <t>minority interest</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>realised transactions</t>
+          <t>net profit atttributable to the equity holders of the bank</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>xác định kqkd đã thực hiện</t>
+          <t>lợi ích của cổ đông thiểu số</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế của cổ đông của ngân hàng mẹ xiii xiv</t>
         </is>
       </c>
     </row>
@@ -5031,17 +6219,22 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>income from investing activities</t>
+          <t>net profit atttributable to the equity holders of the bank</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>net realised earnings for the period</t>
+          <t>net profit atttributable to the equity holders of the bank</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>thu nhập từ hoạt động đầu tư đã thực hiện</t>
+          <t>lợi nhuận sau thuế của cổ đông của ngân hàng mẹ xiii xiv</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>lợi nhuận sau thuế của cổ đông của ngân hàng mẹ xiii xiv</t>
         </is>
       </c>
     </row>
@@ -5051,17 +6244,22 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>dividends</t>
+          <t>earning per share vnd</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>income from investing activities</t>
+          <t>earning per share vnd</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>cổ tức được nhận</t>
+          <t>lãi cơ bản trên cổ phiếu bctc vnð</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>lãi cơ bản trên cổ phiếu bctc vnð</t>
         </is>
       </c>
     </row>
@@ -5071,17 +6269,22 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>coupons</t>
+          <t>realised transactions</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>income from investing activities</t>
+          <t>realised transactions</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>lãi trái phiếu được nhận</t>
+          <t>xác định kqkd đã thực hiện</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>xác định kqkd đã thực hiện</t>
         </is>
       </c>
     </row>
@@ -5091,17 +6294,22 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>interest income from deposits</t>
+          <t>income from investing activities</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>income from investing activities</t>
+          <t>net realised earnings for the period</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>lãi tiền gửi</t>
+          <t>thu nhập từ hoạt động đầu tư đã thực hiện</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>kết quả hoạt động ròng đã thực hiện được phân phối trong kỳ i ii</t>
         </is>
       </c>
     </row>
@@ -5111,7 +6319,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>income from securities trading</t>
+          <t>dividends</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5121,7 +6329,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>thu nhập bán chứng khoán</t>
+          <t>cổ tức được nhận</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>thu nhập từ hoạt động đầu tư đã thực hiện</t>
         </is>
       </c>
     </row>
@@ -5131,7 +6344,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>other income</t>
+          <t>coupons</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5141,7 +6354,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>thu nhập khác</t>
+          <t>lãi trái phiếu được nhận</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>thu nhập từ hoạt động đầu tư đã thực hiện</t>
         </is>
       </c>
     </row>
@@ -5151,17 +6369,22 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>expenses</t>
+          <t>interest income from deposits</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>net realised earnings for the period</t>
+          <t>income from investing activities</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>chi phí</t>
+          <t>lãi tiền gửi</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>thu nhập từ hoạt động đầu tư đã thực hiện</t>
         </is>
       </c>
     </row>
@@ -5171,17 +6394,22 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>fund management fees and incentive fees</t>
+          <t>income from securities trading</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>expenses</t>
+          <t>income from investing activities</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>phí quản lý quỹ</t>
+          <t>thu nhập bán chứng khoán</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>thu nhập từ hoạt động đầu tư đã thực hiện</t>
         </is>
       </c>
     </row>
@@ -5191,17 +6419,22 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>administration and custodian fees</t>
+          <t>other income</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>expenses</t>
+          <t>income from investing activities</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>phí giám sát quản lý tài sản quỹ</t>
+          <t>thu nhập khác</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>thu nhập từ hoạt động đầu tư đã thực hiện</t>
         </is>
       </c>
     </row>
@@ -5211,17 +6444,22 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>meeting expenses</t>
+          <t>expenses</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>expenses</t>
+          <t>net realised earnings for the period</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>chi phí họp đại hội</t>
+          <t>chi phí</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>kết quả hoạt động ròng đã thực hiện được phân phối trong kỳ i ii</t>
         </is>
       </c>
     </row>
@@ -5231,7 +6469,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>audit fees</t>
+          <t>fund management fees and incentive fees</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -5241,7 +6479,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>chi phí kiểm toán</t>
+          <t>phí quản lý quỹ</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>chi phí</t>
         </is>
       </c>
     </row>
@@ -5251,7 +6494,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>evaluation consulting fees</t>
+          <t>administration and custodian fees</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5261,7 +6504,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>chi phí tư vấn định giá</t>
+          <t>phí giám sát quản lý tài sản quỹ</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>chi phí</t>
         </is>
       </c>
     </row>
@@ -5271,7 +6519,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>operating bonus</t>
+          <t>meeting expenses</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5281,7 +6529,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>thưởng hoạt động</t>
+          <t>chi phí họp đại hội</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>chi phí</t>
         </is>
       </c>
     </row>
@@ -5291,7 +6544,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>other fees and expenses</t>
+          <t>audit fees</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -5301,7 +6554,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>phí và chi phí khác</t>
+          <t>chi phí kiểm toán</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>chi phí</t>
         </is>
       </c>
     </row>
@@ -5311,17 +6569,22 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>net realised earnings for the period</t>
+          <t>evaluation consulting fees</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>changes in net assets value from investing activities during the period</t>
+          <t>expenses</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>kết quả hoạt động ròng đã thực hiện được phân phối trong kỳ i ii</t>
+          <t>chi phí tư vấn định giá</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>chi phí</t>
         </is>
       </c>
     </row>
@@ -5331,17 +6594,22 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>profit loss from investing activities</t>
+          <t>operating bonus</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>changes in net assets value from investing activities during the period</t>
+          <t>expenses</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>lãi lỗ từ hoạt động đầu tư</t>
+          <t>thưởng hoạt động</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>chi phí</t>
         </is>
       </c>
     </row>
@@ -5351,17 +6619,22 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>profit loss from investing activities</t>
+          <t>other fees and expenses</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>profit loss from investing activities</t>
+          <t>expenses</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>lãi lỗ thực tế phát sinh từ hoạt động đầu tư</t>
+          <t>phí và chi phí khác</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>chi phí</t>
         </is>
       </c>
     </row>
@@ -5371,17 +6644,22 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>changes in value of investments during the period</t>
+          <t>net realised earnings for the period</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>profit loss from investing activities</t>
+          <t>changes in net assets value from investing activities during the period</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>thay đổi về giá trị của các khoản đầu tư trong kỳ</t>
+          <t>kết quả hoạt động ròng đã thực hiện được phân phối trong kỳ i ii</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>thay đổi của giá trị tài sản ròng của quỹ do các hoạt động đầu tư trong kỳ iii iv</t>
         </is>
       </c>
     </row>
@@ -5391,17 +6669,22 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>right subscription</t>
+          <t>profit loss from investing activities</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>profit loss from investing activities</t>
+          <t>changes in net assets value from investing activities during the period</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>ghi nhận quyền phát hành thêm cp</t>
+          <t>lãi lỗ từ hoạt động đầu tư</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>thay đổi của giá trị tài sản ròng của quỹ do các hoạt động đầu tư trong kỳ iii iv</t>
         </is>
       </c>
     </row>
@@ -5411,7 +6694,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>profit loss from investing activities</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -5421,7 +6704,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>khác</t>
+          <t>lãi lỗ thực tế phát sinh từ hoạt động đầu tư</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>lãi lỗ từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -5431,17 +6719,22 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>changes in net assets value from investing activities during the period</t>
+          <t>changes in value of investments during the period</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>net profit for the period</t>
+          <t>profit loss from investing activities</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>thay đổi của giá trị tài sản ròng của quỹ do các hoạt động đầu tư trong kỳ iii iv</t>
+          <t>thay đổi về giá trị của các khoản đầu tư trong kỳ</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>lãi lỗ từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -5451,17 +6744,22 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>unrealised transactions</t>
+          <t>right subscription</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>unrealised transactions</t>
+          <t>profit loss from investing activities</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>xác định kết quả chưa thực hiện</t>
+          <t>ghi nhận quyền phát hành thêm cp</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>lãi lỗ từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -5471,17 +6769,22 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>others</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>net unrealised earnings for the period</t>
+          <t>profit loss from investing activities</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>thu nhập</t>
+          <t>khác</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>lãi lỗ từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -5491,17 +6794,22 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>gain from revaluation of investments</t>
+          <t>changes in net assets value from investing activities during the period</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>net profit for the period</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>thu nhập đánh giá các khoản đầu tư chứng khoán</t>
+          <t>thay đổi của giá trị tài sản ròng của quỹ do các hoạt động đầu tư trong kỳ iii iv</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>tổng lợi nhuận ròng trong kỳ</t>
         </is>
       </c>
     </row>
@@ -5511,17 +6819,22 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>unrealised devidends</t>
+          <t>unrealised transactions</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>unrealised transactions</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>cố tức chưa thực hiện</t>
+          <t>xác định kết quả chưa thực hiện</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>xác định kết quả chưa thực hiện</t>
         </is>
       </c>
     </row>
@@ -5531,17 +6844,22 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>unrealised coupons</t>
+          <t>income</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>net unrealised earnings for the period</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>lãi trái phiếu chưa thực hiện</t>
+          <t>thu nhập</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>kết quả hoạt động chưa thực hiện cuối kỳ</t>
         </is>
       </c>
     </row>
@@ -5551,7 +6869,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>unrealised interest income from deposits</t>
+          <t>gain from revaluation of investments</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -5561,7 +6879,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>lãi tiền gửi chưa thực hiện</t>
+          <t>thu nhập đánh giá các khoản đầu tư chứng khoán</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>thu nhập</t>
         </is>
       </c>
     </row>
@@ -5571,7 +6894,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>income from exchange difference due to re valuation of ending balances</t>
+          <t>unrealised devidends</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -5581,7 +6904,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>thu nhập chênh lệch tỷ giá hối đoái đánh giá lại cuối kỳ</t>
+          <t>cố tức chưa thực hiện</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>thu nhập</t>
         </is>
       </c>
     </row>
@@ -5591,7 +6919,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>unrealised coupons</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -5601,7 +6929,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>khác</t>
+          <t>lãi trái phiếu chưa thực hiện</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>thu nhập</t>
         </is>
       </c>
     </row>
@@ -5611,17 +6944,22 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>expenses</t>
+          <t>unrealised interest income from deposits</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>net unrealised earnings for the period</t>
+          <t>income</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>chi phí</t>
+          <t>lãi tiền gửi chưa thực hiện</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>thu nhập</t>
         </is>
       </c>
     </row>
@@ -5631,17 +6969,22 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>loss from revaluation of investments</t>
+          <t>income from exchange difference due to re valuation of ending balances</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>expenses</t>
+          <t>income</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>chênh lệch lỗ đánh giá các khoản đầu tư</t>
+          <t>thu nhập chênh lệch tỷ giá hối đoái đánh giá lại cuối kỳ</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>thu nhập</t>
         </is>
       </c>
     </row>
@@ -5651,17 +6994,22 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>loss from exchange difference due to re valuation of ending balances</t>
+          <t>others</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>expenses</t>
+          <t>income</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>chênh lệch lỗ tỷ giá hối đoái đánh giá lại cuối kỳ</t>
+          <t>khác</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>thu nhập</t>
         </is>
       </c>
     </row>
@@ -5671,15 +7019,20 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
+          <t>expenses</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
           <t>net unrealised earnings for the period</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>net profit for the period</t>
-        </is>
-      </c>
       <c r="D271" t="inlineStr">
+        <is>
+          <t>chi phí</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
         <is>
           <t>kết quả hoạt động chưa thực hiện cuối kỳ</t>
         </is>
@@ -5691,15 +7044,95 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
+          <t>loss from revaluation of investments</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>expenses</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>chênh lệch lỗ đánh giá các khoản đầu tư</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>chi phí</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>loss from exchange difference due to re valuation of ending balances</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>expenses</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>chênh lệch lỗ tỷ giá hối đoái đánh giá lại cuối kỳ</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>chi phí</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>net unrealised earnings for the period</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
           <t>net profit for the period</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>kết quả hoạt động chưa thực hiện cuối kỳ</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>tổng lợi nhuận ròng trong kỳ</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
         <is>
           <t>net profit for the period</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr">
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>net profit for the period</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>tổng lợi nhuận ròng trong kỳ</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
         <is>
           <t>tổng lợi nhuận ròng trong kỳ</t>
         </is>

--- a/functions/schema/KQKD_Income Statement_all_accounts.xlsx
+++ b/functions/schema/KQKD_Income Statement_all_accounts.xlsx
@@ -454,22 +454,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>revenue</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>net revenue</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>doanh thu bán hàng và cung cấp dịch vụ</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>doanh thu thuần về bán hàng và cung cấp dịch vụ</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -479,22 +479,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>deduction from revenue</t>
+          <t>gains from financial assets at fair value through profit or loss fvtpl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>net revenue</t>
+          <t>revenue from securities business</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>các khoản giảm trừ doanh thu</t>
+          <t>lãi từ các tài sản tài chính ghi nhận thông qua lãi lỗ fvtpl</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>doanh thu thuần về bán hàng và cung cấp dịch vụ</t>
+          <t>cộng doanh thu hoạt động 01 11</t>
         </is>
       </c>
     </row>
@@ -504,22 +504,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>net revenue</t>
+          <t>realised gains on disposals of fvtpl financial assets</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gross profit</t>
+          <t>gains from financial assets at fair value through profit or loss fvtpl</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>doanh thu thuần về bán hàng và cung cấp dịch vụ</t>
+          <t>lãi bán các tài sản tài chính</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>lợi nhuận gộp về bán hàng và cung cấp dịch vụ</t>
+          <t>lãi từ các tài sản tài chính ghi nhận thông qua lãi lỗ fvtpl</t>
         </is>
       </c>
     </row>
@@ -529,22 +529,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cost of goods sold</t>
+          <t>gains from revaluation of fvtpl financial assets</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gross profit</t>
+          <t>gains from financial assets at fair value through profit or loss fvtpl</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>giá vốn hàng bán</t>
+          <t>chênh lệch tăng đánh giá lại các tstc thông qua lãi lỗ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>lợi nhuận gộp về bán hàng và cung cấp dịch vụ</t>
+          <t>lãi từ các tài sản tài chính ghi nhận thông qua lãi lỗ fvtpl</t>
         </is>
       </c>
     </row>
@@ -554,22 +554,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>gross profit</t>
+          <t>dividends and interest income from fvtpl financial assets</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>operating profit</t>
+          <t>gains from financial assets at fair value through profit or loss fvtpl</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>lợi nhuận gộp về bán hàng và cung cấp dịch vụ</t>
+          <t>cổ tức tiền lãi phát sinh từ tài sản tài chính pvtpl</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+          <t>lãi từ các tài sản tài chính ghi nhận thông qua lãi lỗ fvtpl</t>
         </is>
       </c>
     </row>
@@ -577,24 +577,16 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>financial income</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>operating profit</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>doanh thu hoạt động tài chính</t>
-        </is>
-      </c>
+          <t>gains from financial assets at fair value through profit or loss fvtpl</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+          <t>lãi từ các tài sản tài chính ghi nhận thông qua lãi lỗ fvtpl</t>
         </is>
       </c>
     </row>
@@ -604,22 +596,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>financial expenses</t>
+          <t>gains from held to maturity investments</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>operating profit</t>
+          <t>revenue from securities business</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>chi phí tài chính</t>
+          <t>lãi từ các khoản đầu tư nắm giữ đến ngày đáo hạn htm</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+          <t>cộng doanh thu hoạt động 01 11</t>
         </is>
       </c>
     </row>
@@ -629,22 +621,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>of which interest expenses</t>
+          <t>interest income from loans and receivables</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>of which interest expenses</t>
+          <t>revenue from securities business</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>trong đó chi phí lãi vay</t>
+          <t>lãi từ các khoản cho vay và phải thu</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>trong đó chi phí lãi vay</t>
+          <t>cộng doanh thu hoạt động 01 11</t>
         </is>
       </c>
     </row>
@@ -654,22 +646,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>share of associates and joint ventures result</t>
+          <t>gains from available for sale financial assets afs</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>operating profit</t>
+          <t>revenue from securities business</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>phần lãi lỗ trong công ty liên doanh liên kết</t>
+          <t>lãi từ các tài sản tài chính sẵn sàng để bán afs</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+          <t>cộng doanh thu hoạt động 01 11</t>
         </is>
       </c>
     </row>
@@ -679,22 +671,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>selling expenses</t>
+          <t>gains from hedging derivative tools</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>operating profit</t>
+          <t>revenue from securities business</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>chi phí bán hàng</t>
+          <t>lãi từ các công cụ phái sinh phòng ngừa rủi ro</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+          <t>cộng doanh thu hoạt động 01 11</t>
         </is>
       </c>
     </row>
@@ -704,22 +696,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>general and administrative expenses</t>
+          <t>revenue from brokerage services</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>operating profit</t>
+          <t>revenue from securities business</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>chi phí quản lý doanh nghiệp</t>
+          <t>doanh thu môi giới chứng khoán</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+          <t>cộng doanh thu hoạt động 01 11</t>
         </is>
       </c>
     </row>
@@ -729,22 +721,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>operating profit</t>
+          <t>revenue from securities investment and capital contribution</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>profit before tax</t>
+          <t>revenue from securities business</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+          <t>doanh thu hoạt động đầu tư chứng khoán góp vốn</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận kế toán trước thuế</t>
+          <t>cộng doanh thu hoạt động 01 11</t>
         </is>
       </c>
     </row>
@@ -754,22 +746,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>other income</t>
+          <t>revenue from share issue guarantee and agency activities</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>other profit</t>
+          <t>revenue from securities business</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>thu nhập khác</t>
+          <t>doanh thu bảo lãnh phát hành đại lý phát hành chứng khoán</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>lợi nhuận khác</t>
+          <t>cộng doanh thu hoạt động 01 11</t>
         </is>
       </c>
     </row>
@@ -779,22 +771,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>other expenses</t>
+          <t>revenue from investment portfolio management services</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>other profit</t>
+          <t>revenue from securities business</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>chi phí khác</t>
+          <t>doanh thu quản lý danh mục đầu tư cho người uỷ thác đầu tư</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>lợi nhuận khác</t>
+          <t>cộng doanh thu hoạt động 01 11</t>
         </is>
       </c>
     </row>
@@ -804,22 +796,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>other profit</t>
+          <t>revenue from investment advisory services</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>profit before tax</t>
+          <t>revenue from securities business</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>lợi nhuận khác</t>
+          <t>doanh thu hoạt động tư vấn</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận kế toán trước thuế</t>
+          <t>cộng doanh thu hoạt động 01 11</t>
         </is>
       </c>
     </row>
@@ -829,22 +821,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>share of associates and joint ventures result</t>
+          <t>revenue from entrusted auction services</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>profit before tax</t>
+          <t>revenue from securities business</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>phần lợi nhuận lỗ từ công ty liên kết liên doanh</t>
+          <t>doanh thu hoạt động ủy thác đấu giá</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận kế toán trước thuế</t>
+          <t>cộng doanh thu hoạt động 01 11</t>
         </is>
       </c>
     </row>
@@ -854,22 +846,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>profit before tax</t>
+          <t>revenue from securities custody services</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>net profit after tax</t>
+          <t>revenue from securities business</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận kế toán trước thuế</t>
+          <t>doanh thu lưu ký chứng khoán</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+          <t>cộng doanh thu hoạt động 01 11</t>
         </is>
       </c>
     </row>
@@ -879,22 +871,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>current corporate income tax expenses</t>
+          <t>revenue from property lease</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>net profit after tax</t>
+          <t>revenue from securities business</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>chi phí thuế tndn hiện hành</t>
+          <t>doanh thu cho thuê sử dụng tài sản</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+          <t>cộng doanh thu hoạt động 01 11</t>
         </is>
       </c>
     </row>
@@ -904,22 +896,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>deferred income tax expenses</t>
+          <t>other revenue</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>net profit after tax</t>
+          <t>revenue from securities business</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>chi phí thuế tndn hoãn lại</t>
+          <t>thu nhập hoạt động khác</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+          <t>cộng doanh thu hoạt động 01 11</t>
         </is>
       </c>
     </row>
@@ -929,22 +921,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>net profit after tax</t>
+          <t>deductions</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>profit after tax for shareholders of parent company</t>
+          <t>net sales</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+          <t>các khoản giảm trừ doanh thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
+          <t>doanh thu thuần</t>
         </is>
       </c>
     </row>
@@ -954,22 +946,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>minority s interest</t>
+          <t>revenue from securities business</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>profit after tax for shareholders of parent company</t>
+          <t>net profit from securities business</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>lợi ích của cổ đông thiểu số</t>
+          <t>cộng doanh thu hoạt động 01 11</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
+          <t>kết quả hoạt động 20 50 40 60 61 62</t>
         </is>
       </c>
     </row>
@@ -979,22 +971,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>profit after tax for shareholders of parent company</t>
+          <t>net sales</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>profit after tax for shareholders of parent company</t>
+          <t>gross profit</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
+          <t>doanh thu thuần</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
+          <t>lợi nhuận gộp của hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -1004,22 +996,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>earnings per share vnd</t>
+          <t>operating expenses</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>earnings per share vnd</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>lãi cơ bản trên cổ phiếu vnð</t>
+          <t>chi phí hoạt động</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>lãi cơ bản trên cổ phiếu vnð</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1021,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>diluted earnings per share</t>
+          <t>loss from financial assets at fair value through profit or loss fvtpl</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>diluted earnings per share</t>
+          <t>operating expenses</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>lãi suy giảm trên cổ phiếu</t>
+          <t>lỗ các tài sản tài chính ghi nhận thông qua lỗ fvtpl</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>lãi suy giảm trên cổ phiếu</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1052,16 +1044,24 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>loss from disposals of financial assets at fvtpl</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1 doanh thu</t>
+          <t>lỗ bán các tài sản tài chính</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3 doanh thu thuần về hoạt động kinh doanh 10 01 02</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1069,16 +1069,24 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>loss from revaluation of financial assets at fvtpl</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2 các khoản giảm trừ doanh thu</t>
+          <t>chênh lệch giảm đánh giá lại các tstc thông qua lãi lỗ</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3 doanh thu thuần về hoạt động kinh doanh 10 01 02</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1086,16 +1094,24 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>transaction cost of acquisition of financial assets at fvtpl</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3 doanh thu thuần về hoạt động kinh doanh 10 01 02</t>
+          <t>chi phí giao dịch mua các tài sản tài chính fvtpl</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5 lợi nhuận gộp từ hoạt động kinh doanh 20 10 11</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1104,15 +1120,15 @@
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4 chi phí hoạt động kinh doanh</t>
-        </is>
-      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5 lợi nhuận gộp từ hoạt động kinh doanh 20 10 11</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1120,16 +1136,24 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>loss from held to maturity investments</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5 lợi nhuận gộp từ hoạt động kinh doanh 20 10 11</t>
+          <t>lỗ các khoản đầu tư năm giữ đến ngày đáo hạn htm</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>9 lợi nhuận thuần từ hoạt động kinh doanh 30 20 21 22 24 25</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1137,16 +1161,24 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>interest expenses losses from loans and receivables</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6 doanh thu hoạt động tài chính</t>
+          <t>chi phí lãi vay lỗ từ các khoản cho vay và phải thu</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>9 lợi nhuận thuần từ hoạt động kinh doanh 30 20 21 22 24 25</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1154,16 +1186,24 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>selling loss available for sale financial assets afs</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7 chi phí tài chính</t>
+          <t>4 lỗ bán các tài sản tài chính sẵn sàng để bán afs</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>9 lợi nhuận thuần từ hoạt động kinh doanh 30 20 21 22 24 25</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1171,16 +1211,24 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>loss from hedging derivative tools</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>trong đó chi phí lãi vay</t>
+          <t>lỗ từ các tài sản tài chính phái sinh phòng ngừa rủi ro</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>trong đó chi phí lãi vay</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1188,16 +1236,24 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>expenses for proprietary trading activities</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8 chi phí quản lý doanh nghiệp</t>
+          <t>chi phí hoạt động tự doanh</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>9 lợi nhuận thuần từ hoạt động kinh doanh 30 20 21 22 24 25</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1205,16 +1261,24 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>expenses for brokerage services</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9 lợi nhuận thuần từ hoạt động kinh doanh 30 20 21 22 24 25</t>
+          <t>chi phí môi giới chứng khoán</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13 tổng lợi nhuận kế toán trước thuế 50 30 40 41</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1222,16 +1286,24 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>expenses for underwriting and issurance agency services</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10 thu nhập khác</t>
+          <t>chi phí hoạt động bảo lãnh đại lý phát hành chứng khoán</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12 lợi nhuận khác 40 31 32</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1239,16 +1311,24 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>expenses for financial advisory services</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>11 chi phí khác</t>
+          <t>chi phí tư vấn</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12 lợi nhuận khác 40 31 32</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1256,16 +1336,24 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>expenses of auction and trust activities</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12 lợi nhuận khác 40 31 32</t>
+          <t>chi phí hoạt động đấu giá ủy thác</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13 tổng lợi nhuận kế toán trước thuế 50 30 40 41</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1273,16 +1361,24 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>expenses for secutiries custodian services</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13 tổng lợi nhuận kế toán trước thuế 50 30 40 41</t>
+          <t>chi phí lưu ký chứng khoán</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>16 lợi nhuận sau thuế thu nhập doanh nghiệp 60 50 51 52</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1386,24 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>other expenses</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14 chi phí thuế tndn hiện hành</t>
+          <t>chi phí khác</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>16 lợi nhuận sau thuế thu nhập doanh nghiệp 60 50 51 52</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1307,16 +1411,24 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>in which expenses fixing trading error other error</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15 chi phí thuế tndn hoãn lại</t>
+          <t>trong đó chi phí sửa lỗi giao dịch chứng khoán lỗi khác</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>16 lợi nhuận sau thuế thu nhập doanh nghiệp 60 50 51 52</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1324,16 +1436,24 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>direct operating expenses</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>16 lợi nhuận sau thuế thu nhập doanh nghiệp 60 50 51 52</t>
+          <t>chi phí trực tiếp hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>16 lợi nhuận sau thuế thu nhập doanh nghiệp 60 50 51 52</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1341,16 +1461,24 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>securities provision expenses income from reversal of provision</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>lãi cơ bản trên cổ phiếu báo cáo tài chính</t>
+          <t>chi phí dự phòng chứng khoán</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>lãi cơ bản trên cổ phiếu báo cáo tài chính</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
     </row>
@@ -1360,22 +1488,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>operating expenses</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>net insurance premium 03 01 02</t>
+          <t>net profit from securities business</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>cộng chi phí hoạt động 21 33</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>doanh thu phí bảo hiểm thuần 03 01 02</t>
+          <t>kết quả hoạt động 20 50 40 60 61 62</t>
         </is>
       </c>
     </row>
@@ -1385,22 +1513,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>gross written premium</t>
+          <t>gross profit</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>net profit from securities business</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>thu phí bảo hiểm gốc</t>
+          <t>lợi nhuận gộp của hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>kết quả hoạt động 20 50 40 60 61 62</t>
         </is>
       </c>
     </row>
@@ -1410,22 +1538,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>reinsurance premium assumed</t>
+          <t>financial income</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>thu phí nhận tái bảo hiểm</t>
+          <t>doanh thu hoạt động tài chính</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -1435,22 +1563,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>increase decrese in gross unearned premium reserve</t>
+          <t>realized and unrealized gain from changes in foreign exchange rates</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>total financial income 41 44</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>tăng giảm dự phòng phí bảo hiểm gốc và nhận tái bảo hiểm</t>
+          <t>chênh lệch lãi tỷ giá hối đoái đã và chưa thực hiện</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>cộng doanh thu hoạt động tài chính 41 44</t>
         </is>
       </c>
     </row>
@@ -1460,22 +1588,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>reinsurance premium ceded</t>
+          <t>dividends interest income from demand deposits</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>net insurance premium 03 01 02</t>
+          <t>total financial income 41 44</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>phí nhượng tái bảo hiểm</t>
+          <t>doanh thu dự thu cổ tức lãi tiền gửi không cố định phát sinh trong kỳ</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>doanh thu phí bảo hiểm thuần 03 01 02</t>
+          <t>cộng doanh thu hoạt động tài chính 41 44</t>
         </is>
       </c>
     </row>
@@ -1485,22 +1613,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>reinsurance premium ceded</t>
+          <t>gains from disposal investments in subsidiaries associates joint ventures</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>reinsurance premium ceded</t>
+          <t>total financial income 41 44</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>phí nhượng tái bảo hiểm</t>
+          <t>lãi bán thanh lý các khoản đầu tư vào công ty con liên kết liên doanh</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>phí nhượng tái bảo hiểm</t>
+          <t>cộng doanh thu hoạt động tài chính 41 44</t>
         </is>
       </c>
     </row>
@@ -1510,22 +1638,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>increase decrease in ceded unearned premium reserve</t>
+          <t>other income about investment</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>reinsurance premium ceded</t>
+          <t>total financial income 41 44</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>tăng giảm dự phòng phí nhượng tái bảo hiểm</t>
+          <t>doanh thu khác về đầu tư</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>phí nhượng tái bảo hiểm</t>
+          <t>cộng doanh thu hoạt động tài chính 41 44</t>
         </is>
       </c>
     </row>
@@ -1535,22 +1663,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>deductions</t>
+          <t>total financial income 41 44</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>net insurance premium 03 01 02</t>
+          <t>net profit from securities business</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>các khoản giảm trừ</t>
+          <t>cộng doanh thu hoạt động tài chính 41 44</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>doanh thu phí bảo hiểm thuần 03 01 02</t>
+          <t>kết quả hoạt động 20 50 40 60 61 62</t>
         </is>
       </c>
     </row>
@@ -1560,22 +1688,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>premium deduction</t>
+          <t>financial expenses</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>deductions</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>giảm phí bảo hiểm</t>
+          <t>chí phí tài chính</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>các khoản giảm trừ</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1713,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>premium returns</t>
+          <t>realized and unrealized loss from changes in foreign exchange rates</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>deductions</t>
+          <t>total financial expenses 51 54</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>hoàn phí bảo hiểm</t>
+          <t>chênh lệch lỗ tỷ giá hối đoái đã và chưa thưc hiện</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>các khoản giảm trừ</t>
+          <t>cộng chi phí tài chính 51 54</t>
         </is>
       </c>
     </row>
@@ -1610,22 +1738,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>borrowing costs</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>deductions</t>
+          <t>total financial expenses 51 54</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>các khoản giảm trừ khác</t>
+          <t>chi phí lãi vay</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>các khoản giảm trừ</t>
+          <t>cộng chi phí tài chính 51 54</t>
         </is>
       </c>
     </row>
@@ -1635,22 +1763,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>increase decrease in unearned premium reserve and technical reserve</t>
+          <t>loss from disposal investments in subsidiaries associates joint ventures</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>net insurance premium 03 01 02</t>
+          <t>total financial expenses 51 54</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>tăng giảm dự phòng phí dự phòng toán học</t>
+          <t>lỗ bán thanh lý các khoản đầu tư vào công ty con liên kết liên doanh</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>doanh thu phí bảo hiểm thuần 03 01 02</t>
+          <t>cộng chi phí tài chính 51 54</t>
         </is>
       </c>
     </row>
@@ -1660,22 +1788,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>net insurance premium 03 01 02</t>
+          <t>other investment expenses</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>total net revenue from insurance business</t>
+          <t>total financial expenses 51 54</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>doanh thu phí bảo hiểm thuần 03 01 02</t>
+          <t>chi phí đầu tư khác</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>doanh thu thuần hđkd bh 10 03 04</t>
+          <t>cộng chi phí tài chính 51 54</t>
         </is>
       </c>
     </row>
@@ -1685,22 +1813,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>total financial expenses 51 54</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>total net revenue from insurance business</t>
+          <t>net profit from securities business</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>cộng chi phí tài chính 51 54</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>doanh thu thuần hđkd bh 10 03 04</t>
+          <t>kết quả hoạt động 20 50 40 60 61 62</t>
         </is>
       </c>
     </row>
@@ -1710,22 +1838,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>commissions on reinsurance ceded</t>
+          <t>selling expenses</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>net profit from securities business</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>thu hoa hồng nhượng tái bảo hiểm</t>
+          <t>chi phí bán hàng</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>kết quả hoạt động 20 50 40 60 61 62</t>
         </is>
       </c>
     </row>
@@ -1735,22 +1863,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>other income</t>
+          <t>general and administrative expenses</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>net profit from securities business</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>thu khác hoạt động kinh doanh bảo hiểm</t>
+          <t>chi phí quản lý công ty chứng khoán</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>kết quả hoạt động 20 50 40 60 61 62</t>
         </is>
       </c>
     </row>
@@ -1760,22 +1888,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>income on reinsurance assumed</t>
+          <t>net profit from securities business</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>other income</t>
+          <t>profit before tax</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>thu khác nhận tái bảo hiểm</t>
+          <t>kết quả hoạt động 20 50 40 60 61 62</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>thu khác hoạt động kinh doanh bảo hiểm</t>
+          <t>tổng lợi nhuận kế toán trước thuế 70 80</t>
         </is>
       </c>
     </row>
@@ -1785,22 +1913,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>income on reinsurance ceded</t>
+          <t>other income and expenses</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>other income</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>thu khác nhượng tái bảo hiểm</t>
+          <t>thu nhập khác và chi phí khác</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>thu khác hoạt động kinh doanh bảo hiểm</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -1810,22 +1938,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>income from other activities</t>
+          <t>other incomes</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>other income</t>
+          <t>other profit</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>thu khác giám định đại lý</t>
+          <t>thu nhập khác</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>thu khác hoạt động kinh doanh bảo hiểm</t>
+          <t>cộng kết quả hoạt động khác 71 72</t>
         </is>
       </c>
     </row>
@@ -1835,22 +1963,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>total net revenue from insurance business</t>
+          <t>other expenses</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>gross insurance operating profit</t>
+          <t>other profit</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>doanh thu thuần hđkd bh 10 03 04</t>
+          <t>chi phí khác</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>lợi nhuận gộp hoạt động kinh doanh bảo hiểm</t>
+          <t>cộng kết quả hoạt động khác 71 72</t>
         </is>
       </c>
     </row>
@@ -1860,22 +1988,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>revenue</t>
+          <t>other profit</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>total net revenue from insurance business</t>
+          <t>profit before tax</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>doanh thuần bh và ccdv</t>
+          <t>cộng kết quả hoạt động khác 71 72</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>doanh thu thuần hđkd bh 10 03 04</t>
+          <t>tổng lợi nhuận kế toán trước thuế 70 80</t>
         </is>
       </c>
     </row>
@@ -1885,22 +2013,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>claim expenses on retained risks</t>
+          <t>share of associates and joint ventures result</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>total claim insurance expenses</t>
+          <t>profit before tax</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>chi bồi thường</t>
+          <t>lãi lỗ từ công ty liên doanh liên kết</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
+          <t>tổng lợi nhuận kế toán trước thuế 70 80</t>
         </is>
       </c>
     </row>
@@ -1910,22 +2038,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>total claim expenses</t>
+          <t>profit before tax</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>cost of providing other goods and services</t>
+          <t>net profit after tax</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>tổng chi bồi thường</t>
+          <t>tổng lợi nhuận kế toán trước thuế 70 80</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>giá vốn cung cấp hàng hóa dịch vụ khác</t>
+          <t>lợi nhuận kế toán sau thuế tndn 90 100</t>
         </is>
       </c>
     </row>
@@ -1935,22 +2063,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>claim and maturity payment expenses</t>
+          <t>realised profit</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>claim expenses on retained risks</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>chi bồi thường bảo hiểm gốc trả tiền bảo hiểm</t>
+          <t>lợi nhuận đã thực hiện</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>chi bồi thường</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -1960,22 +2088,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>claim expenses for reinsurance assumed</t>
+          <t>unrealised profit</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>claim expenses on retained risks</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>chi bồi thường nhận tái bảo hiểm trả tiền bảo hiểm</t>
+          <t>lợi nhuận chưa thực hiện</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>chi bồi thường</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -1985,22 +2113,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>deductions</t>
+          <t>corporate income tax</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>claim expenses on retained risks</t>
+          <t>net profit after tax</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>các khoản giảm trừ</t>
+          <t>chi phí thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>chi bồi thường</t>
+          <t>lợi nhuận kế toán sau thuế tndn 90 100</t>
         </is>
       </c>
     </row>
@@ -2010,22 +2138,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>subrogation recoveries</t>
+          <t>current corporate income tax expenses</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>deductions</t>
+          <t>corporate income tax</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>thu đòi người thứ ba bồi hoàn</t>
+          <t>chi phí thuế tndn hiện hành</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>các khoản giảm trừ</t>
+          <t>chi phí thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
     </row>
@@ -2035,22 +2163,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>salvages</t>
+          <t>deferred income tax expenses</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>deductions</t>
+          <t>corporate income tax</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>thu hàng đã xử lý bồi thường 100</t>
+          <t>chi phí thuế tndn hoãn lại</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>các khoản giảm trừ</t>
+          <t>chi phí thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
     </row>
@@ -2060,22 +2188,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>recoveries from reinsurance ceded</t>
+          <t>net profit after tax</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>total claim insurance expenses</t>
+          <t>2 profit after tax for shareholders of the parents company</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>thu bồi thường nhượng tái bảo hiểm</t>
+          <t>lợi nhuận kế toán sau thuế tndn 90 100</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
+          <t>lợi nhuận sau thuế phân bổ cho chủ sở hữu</t>
         </is>
       </c>
     </row>
@@ -2085,22 +2213,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>increase decrease in mathematical reserve</t>
+          <t>2 profit after tax for shareholders of the parents company</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>total claim insurance expenses</t>
+          <t>2 profit after tax for shareholders of the parents company</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>tăng giảm dự phòng toán học dành riêng bvh</t>
+          <t>lợi nhuận sau thuế phân bổ cho chủ sở hữu</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
+          <t>lợi nhuận sau thuế phân bổ cho chủ sở hữu</t>
         </is>
       </c>
     </row>
@@ -2110,22 +2238,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>increase decrease in claim reserves for direct insurance and reinsurance assumed</t>
+          <t>profit after tax taken from funds</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>total claim insurance expenses</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>tăng giảm dự phòng bồi thường bảo hiểm gốc và nhận tái bảo hiểm</t>
+          <t>lợi nhuận sau thuế trích các quỹ quỹ dự trữ điều lệ quỹ dự phòng tài chính và rủi ro nghề nghiệp theo quy định của điều lệ công ty là</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -2135,22 +2263,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>increase decrease in claim reserves related to reinsurance ceded</t>
+          <t>1 minority interest</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>total claim insurance expenses</t>
+          <t>2 profit after tax for shareholders of the parents company</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>tăng giảm dự phòng bồi thường nhượng tái bảo hiểm</t>
+          <t>lợi nhuận thuần phân bổ cho lợi ích cổ đông không kiểm soát</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
+          <t>lợi nhuận sau thuế phân bổ cho chủ sở hữu</t>
         </is>
       </c>
     </row>
@@ -2160,22 +2288,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>increase in claim reserve</t>
+          <t>other comprehensive income after tax</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>total direct insurance operating expenses</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>tăng giảm dự phòng bồi thường</t>
+          <t>thu nhập lỗ toàn diện khác sau thuế tndn</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -2185,22 +2313,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>total claim insurance expenses</t>
+          <t>gains loss from revaluation of held to maturity investments</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>total direct insurance operating expenses</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
+          <t>lãi lỗ từ đánh giá lại các khoản đầu tư giữ đến ngày đáo hạn</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -2210,22 +2338,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>provision for catastrophe reserve</t>
+          <t>gains loss from revaluation of availables for sale financial assets</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>total direct insurance operating expenses</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>tăng giảm dự phòng dao động lớn</t>
+          <t>lãi lỗ từ đánh giá lại các tài sản tài chính sẵn sàng để bán</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -2235,22 +2363,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>claim expenses using catastrophe reserve</t>
+          <t>other total gains loss are dividend from investments in subsidiaries associates joint ventures</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>total direct insurance operating expenses</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>chi bồi thường từ dự phòng dao động lớn</t>
+          <t>lãi lỗ toàn diện khác được chia từ hoạt động đầu tư vào công ty con đầu tư liên kết liên doanh</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -2260,22 +2388,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>other insurance operating expenses</t>
+          <t>gains loss from revaluation of derivative financial tools</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>total direct insurance operating expenses</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>chi khác hoạt động kinh doanh bảo hiểm</t>
+          <t>lãi lỗ từ đánh giá lại các công cụ tài chính phái sinh</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -2285,22 +2413,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>commission</t>
+          <t>gains loss from realized and unrealized loss from changes in foreign exchange rates</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>other insurance operating expenses</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>chi hoa hồng bảo hiểm</t>
+          <t>lãi lỗ chênh lệch tỷ giá của hoạt động tại nước ngoài</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>chi khác hoạt động kinh doanh bảo hiểm</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -2310,22 +2438,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>other insurance operating expenses</t>
+          <t>gains loss from investments in subsidiaries associates joint ventures are not yet divided</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>other insurance operating expenses</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>chi phí khác hoạt động kinh doanh bảo hiểm</t>
+          <t>công ty liên kết liên doanh chưa chia</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>chi khác hoạt động kinh doanh bảo hiểm</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -2335,22 +2463,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>other underwriting expenses</t>
+          <t>gains loss from revaluation of derivative tools</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>other insurance operating expenses</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
+          <t>lãi lỗ đánh giá công cụ phái sinh</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>chi phí khác hoạt động kinh doanh bảo hiểm</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -2360,22 +2488,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>damage assessment expenses</t>
+          <t>gains loss from revaluation fixed assets by reasonable value model</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>other underwriting expenses</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>chi giám định tổn thất</t>
+          <t>lãi lỗ đánh giá lại tài sản cố định theo mô hình giá trị hợp lý</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -2385,22 +2513,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>subrogation recovery expenses</t>
+          <t>total other comprehensive income</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>other underwriting expenses</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>chi đòi người thứ 3</t>
+          <t>tổng thu nhập toàn diện</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -2410,22 +2538,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>salvage expenses</t>
+          <t>other comprehensive income attribute to the parent company s owners</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>other underwriting expenses</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>chi xử lý hàng bồi thường 100</t>
+          <t>thu nhập toàn diện phân bổ cho chủ sở hữu</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -2435,22 +2563,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>loss adjusting fee risk assessment</t>
+          <t>other comprehensive income attribute to non controling interest</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>other underwriting expenses</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>chi đánh giá rủi ro của đối tượng bảo hiểm</t>
+          <t>thu nhập toàn diện phân bổ cho cổ đông không nắm quyền kiểm soát</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -2460,22 +2588,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>risk minimization expenses</t>
+          <t>net income appropriated to ordinary shareholders</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>other underwriting expenses</t>
+          <t>operating income</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>chi đề phòng hạn chế rủi ro tổn thất</t>
+          <t>thu nhập thuần trên cổ phiếu phổ thông</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
+          <t>doanh thu hoạt động</t>
         </is>
       </c>
     </row>
@@ -2485,22 +2613,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>earning per share vnd</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>other underwriting expenses</t>
+          <t>earning per share vnd</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>chi khác</t>
+          <t>lãi cơ bản trên cổ phiếu đồng 1 cổ phiếu vnð</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
+          <t>lãi cơ bản trên cổ phiếu đồng 1 cổ phiếu vnð</t>
         </is>
       </c>
     </row>
@@ -2510,22 +2638,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>other reinsurance assumed expenses</t>
+          <t>diluted earning per share</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>other insurance operating expenses</t>
+          <t>diluted earning per share</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>chi khác hoạt động kinh doanh nhận tái bảo hiểm</t>
+          <t>thu nhập pha loãng trên cổ phiếu đồng 1 cổ phiếu</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>chi phí khác hoạt động kinh doanh bảo hiểm</t>
+          <t>thu nhập pha loãng trên cổ phiếu đồng 1 cổ phiếu</t>
         </is>
       </c>
     </row>
@@ -2535,22 +2663,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>commission</t>
+          <t>revenue</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>other reinsurance assumed expenses</t>
+          <t>net revenue</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>chi hoa hồng nhận tái bảo hiểm</t>
+          <t>doanh thu bán hàng và cung cấp dịch vụ</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>chi khác hoạt động kinh doanh nhận tái bảo hiểm</t>
+          <t>doanh thu thuần về bán hàng và cung cấp dịch vụ</t>
         </is>
       </c>
     </row>
@@ -2560,22 +2688,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>loss adjusting fee risk assessment</t>
+          <t>deduction from revenue</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>other reinsurance assumed expenses</t>
+          <t>net revenue</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>chi đánh giá rủi ro của đối tượng bảo hiểm</t>
+          <t>các khoản giảm trừ doanh thu</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>chi khác hoạt động kinh doanh nhận tái bảo hiểm</t>
+          <t>doanh thu thuần về bán hàng và cung cấp dịch vụ</t>
         </is>
       </c>
     </row>
@@ -2585,22 +2713,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>net revenue</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>other reinsurance assumed expenses</t>
+          <t>gross profit</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>chi khác</t>
+          <t>doanh thu thuần về bán hàng và cung cấp dịch vụ</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>chi khác hoạt động kinh doanh nhận tái bảo hiểm</t>
+          <t>lợi nhuận gộp về bán hàng và cung cấp dịch vụ</t>
         </is>
       </c>
     </row>
@@ -2610,22 +2738,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>other reinsurance ceded expenses</t>
+          <t>cost of goods sold</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>other insurance operating expenses</t>
+          <t>gross profit</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>chi hoạt động nhượng tái bảo hiểm</t>
+          <t>giá vốn hàng bán</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>chi phí khác hoạt động kinh doanh bảo hiểm</t>
+          <t>lợi nhuận gộp về bán hàng và cung cấp dịch vụ</t>
         </is>
       </c>
     </row>
@@ -2635,22 +2763,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>other direct operating expenses</t>
+          <t>gross profit</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>other insurance operating expenses</t>
+          <t>operating profit</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>chi phí trực tiếp kinh doanh hoạt động khác</t>
+          <t>lợi nhuận gộp về bán hàng và cung cấp dịch vụ</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>chi phí khác hoạt động kinh doanh bảo hiểm</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2660,22 +2788,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>total direct insurance operating expenses</t>
+          <t>financial income</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>gross insurance operating profit</t>
+          <t>operating profit</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
+          <t>doanh thu hoạt động tài chính</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>lợi nhuận gộp hoạt động kinh doanh bảo hiểm</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2685,22 +2813,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>cost of providing other goods and services</t>
+          <t>financial expenses</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>cost of providing other goods and services</t>
+          <t>operating profit</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>giá vốn cung cấp hàng hóa dịch vụ khác</t>
+          <t>chi phí tài chính</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>giá vốn cung cấp hàng hóa dịch vụ khác</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2710,22 +2838,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>gross insurance operating profit</t>
+          <t>of which interest expenses</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>operating profit</t>
+          <t>of which interest expenses</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>lợi nhuận gộp hoạt động kinh doanh bảo hiểm</t>
+          <t>trong đó chi phí lãi vay</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+          <t>trong đó chi phí lãi vay</t>
         </is>
       </c>
     </row>
@@ -2735,22 +2863,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>gross profit of providing other goods and services</t>
+          <t>share of associates and joint ventures result</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>cost of providing other goods and services</t>
+          <t>operating profit</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>lợi nhuận gộp cung cấp hàng hóa dịch vụ khác</t>
+          <t>phần lãi lỗ trong công ty liên doanh liên kết</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>giá vốn cung cấp hàng hóa dịch vụ khác</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2760,22 +2888,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>profit from insurance operating</t>
+          <t>selling expenses</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>total profit</t>
+          <t>operating profit</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần hoạt động kinh doanh bảo hiểm</t>
+          <t>chi phí bán hàng</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận kế toán trước thuế</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2785,22 +2913,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>revenue from properties investment</t>
+          <t>general and administrative expenses</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>profit from properties investment 22 20 21</t>
+          <t>operating profit</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>doanh thu kinh doanh bất động sản đầu tư</t>
+          <t>chi phí quản lý doanh nghiệp</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>lợi nhuận từ hoạt động đầu tư bất động sản 22 20 21</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2810,22 +2938,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>cost of properties investment</t>
+          <t>operating profit</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>profit from properties investment 22 20 21</t>
+          <t>profit before tax</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>giá vốn bất động sản đầu tư</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>lợi nhuận từ hoạt động đầu tư bất động sản 22 20 21</t>
+          <t>tổng lợi nhuận kế toán trước thuế</t>
         </is>
       </c>
     </row>
@@ -2835,22 +2963,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>profit from properties investment 22 20 21</t>
+          <t>other income</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>operating profit</t>
+          <t>other profit</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>lợi nhuận từ hoạt động đầu tư bất động sản 22 20 21</t>
+          <t>thu nhập khác</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+          <t>lợi nhuận khác</t>
         </is>
       </c>
     </row>
@@ -2860,22 +2988,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>revenue from financial activities</t>
+          <t>other expenses</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>profit form financial activities</t>
+          <t>other profit</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động tài chính</t>
+          <t>chi phí khác</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>lợi nhuận gộp hoạt động tài chính</t>
+          <t>lợi nhuận khác</t>
         </is>
       </c>
     </row>
@@ -2885,22 +3013,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>expenses on financial activities</t>
+          <t>other profit</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>profit form financial activities</t>
+          <t>profit before tax</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>chi hoạt động tài chính</t>
+          <t>lợi nhuận khác</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>lợi nhuận gộp hoạt động tài chính</t>
+          <t>tổng lợi nhuận kế toán trước thuế</t>
         </is>
       </c>
     </row>
@@ -2910,22 +3038,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>mathematical reserve for investment profit sharing</t>
+          <t>share of associates and joint ventures result</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>expenses on financial activities</t>
+          <t>profit before tax</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>dự phòng toán học trích lãi từ đầu tư</t>
+          <t>phần lợi nhuận lỗ từ công ty liên kết liên doanh</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>chi hoạt động tài chính</t>
+          <t>tổng lợi nhuận kế toán trước thuế</t>
         </is>
       </c>
     </row>
@@ -2935,22 +3063,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>dividend reserve</t>
+          <t>profit before tax</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>expenses on financial activities</t>
+          <t>net profit after tax</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>dự phòng chia lãi</t>
+          <t>tổng lợi nhuận kế toán trước thuế</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>chi hoạt động tài chính</t>
+          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
     </row>
@@ -2960,22 +3088,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>current corporate income tax expenses</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>expenses on financial activities</t>
+          <t>net profit after tax</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>chi khác hoạt động tài chính</t>
+          <t>chi phí thuế tndn hiện hành</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>chi hoạt động tài chính</t>
+          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
     </row>
@@ -2985,22 +3113,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>profit form financial activities</t>
+          <t>deferred income tax expenses</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>operating profit</t>
+          <t>net profit after tax</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>lợi nhuận gộp hoạt động tài chính</t>
+          <t>chi phí thuế tndn hoãn lại</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
     </row>
@@ -3010,22 +3138,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>selling expenses</t>
+          <t>net profit after tax</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>profit from insurance operating</t>
+          <t>profit after tax for shareholders of parent company</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>chi phí bán hàng</t>
+          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần hoạt động kinh doanh bảo hiểm</t>
+          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
         </is>
       </c>
     </row>
@@ -3035,22 +3163,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>administrative expenses</t>
+          <t>minority s interest</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>operating profit</t>
+          <t>profit after tax for shareholders of parent company</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>chi phí quản lý doanh nghiệp</t>
+          <t>lợi ích của cổ đông thiểu số</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
         </is>
       </c>
     </row>
@@ -3060,22 +3188,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>operating profit</t>
+          <t>profit after tax for shareholders of parent company</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>total profit</t>
+          <t>profit after tax for shareholders of parent company</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
+          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận kế toán trước thuế</t>
+          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
         </is>
       </c>
     </row>
@@ -3085,22 +3213,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>other incomes</t>
+          <t>earnings per share vnd</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>other profits</t>
+          <t>earnings per share vnd</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>thu nhập khác</t>
+          <t>lãi cơ bản trên cổ phiếu vnð</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>lợi nhuận khác</t>
+          <t>lãi cơ bản trên cổ phiếu vnð</t>
         </is>
       </c>
     </row>
@@ -3110,22 +3238,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>other expenses</t>
+          <t>diluted earnings per share</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>other profits</t>
+          <t>diluted earnings per share</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>chi phí khác</t>
+          <t>lãi suy giảm trên cổ phiếu</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>lợi nhuận khác</t>
+          <t>lãi suy giảm trên cổ phiếu</t>
         </is>
       </c>
     </row>
@@ -3135,22 +3263,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>other profits</t>
+          <t>interest income and similar income</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>total profit</t>
+          <t>net interest income</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>lợi nhuận khác</t>
+          <t>thu nhập lãi và các khoản thu nhập tương tự</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận kế toán trước thuế</t>
+          <t>thu nhập lãi thuần</t>
         </is>
       </c>
     </row>
@@ -3160,22 +3288,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>share of profitin associates and joint ventures</t>
+          <t>interest expense and similar expenses</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>total profit</t>
+          <t>net interest income</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>phần lợi nhuận lỗ từ công ty liên kết liên doanh</t>
+          <t>chi phí lãi và các chi phí tương tự</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận kế toán trước thuế</t>
+          <t>thu nhập lãi thuần</t>
         </is>
       </c>
     </row>
@@ -3185,22 +3313,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>total profit</t>
+          <t>net interest income</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>profit after tax</t>
+          <t>operating profit before provision for credit losses</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận kế toán trước thuế</t>
+          <t>thu nhập lãi thuần</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
       </c>
     </row>
@@ -3210,22 +3338,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>increasing or decreasing adjustments to define taxable profit</t>
+          <t>fee and commission income</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>total profit before tax</t>
+          <t>net fee and commission income</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>các khoản điều chỉnh tăng hoặc giảm lợi nhuận để xác định lợi nhuận chịu thuế tndn</t>
+          <t>thu nhập từ hoạt động dịch vụ</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận trước thuế thu nhập doanh nghiệp</t>
+          <t>lãi lỗ thuần từ hoạt động dịch vụ</t>
         </is>
       </c>
     </row>
@@ -3235,22 +3363,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>total profit before tax</t>
+          <t>fee and commission expenses</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>taxable profit</t>
+          <t>net fee and commission income</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận trước thuế thu nhập doanh nghiệp</t>
+          <t>chi phí hoạt động dịch vụ</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>lợi nhuận chịu thuế thu nhập doanh nghiệp</t>
+          <t>lãi lỗ thuần từ hoạt động dịch vụ</t>
         </is>
       </c>
     </row>
@@ -3260,22 +3388,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>equalization reserve</t>
+          <t>net fee and commission income</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>profit after tax</t>
+          <t>operating profit before provision for credit losses</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>dự phòng đảm bảo cân đối</t>
+          <t>lãi lỗ thuần từ hoạt động dịch vụ</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
       </c>
     </row>
@@ -3285,22 +3413,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>taxable profit</t>
+          <t>net gain loss from foreign currencies and gold trading</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>taxable profit</t>
+          <t>operating profit before provision for credit losses</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>lợi nhuận chịu thuế thu nhập doanh nghiệp</t>
+          <t>lãi lỗ thuần từ hoạt động kinh doanh ngoại hối và vàng</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>lợi nhuận chịu thuế thu nhập doanh nghiệp</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
       </c>
     </row>
@@ -3310,22 +3438,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>current corporate income tax expenses</t>
+          <t>net gain loss from trading securities</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>profit after tax</t>
+          <t>operating profit before provision for credit losses</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>chi phí thuế thu nhập hiện hành</t>
+          <t>lãi lỗ thuần từ mua bán chứng khoán kinh doanh</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
       </c>
     </row>
@@ -3335,22 +3463,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>deferred income tax expenses</t>
+          <t>net gain loss from investment securities</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>profit after tax</t>
+          <t>operating profit before provision for credit losses</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>chi phí thuế thu nhập hoãn lại</t>
+          <t>lãi lỗ thuần từ mua bán chứng khoán đầu tư</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
       </c>
     </row>
@@ -3360,22 +3488,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>profit after tax</t>
+          <t>other income</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>profit after tax for shareholders of the parent company</t>
+          <t>net other income</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+          <t>thu nhập từ hoạt động khác</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
+          <t>lãi lỗ thuần từ hoạt động khác</t>
         </is>
       </c>
     </row>
@@ -3385,22 +3513,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>minority interest</t>
+          <t>other expenses</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>profit after tax for shareholders of the parent company</t>
+          <t>net other income</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>lợi ích của cổ đông thiểu số</t>
+          <t>chi phí hoạt động khác</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
+          <t>lãi lỗ thuần từ hoạt động khác</t>
         </is>
       </c>
     </row>
@@ -3410,22 +3538,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>profit after tax for shareholders of the parent company</t>
+          <t>net other income</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>profit after tax for shareholders of the parent company</t>
+          <t>operating profit before provision for credit losses</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
+          <t>lãi lỗ thuần từ hoạt động khác</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
       </c>
     </row>
@@ -3435,22 +3563,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1 earning per share vnd</t>
+          <t>income from capital contribution and long term investments</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1 earning per share vnd</t>
+          <t>operating profit before provision for credit losses</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>vnð</t>
+          <t>thu nhập từ góp vốn mua cổ phần</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>vnð</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
       </c>
     </row>
@@ -3460,22 +3588,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>operating expenses</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>operating profit before provision for credit losses</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>chi phí hoạt động</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
       </c>
     </row>
@@ -3485,22 +3613,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>gains from financial assets at fair value through profit or loss fvtpl</t>
+          <t>operating profit before provision for credit losses</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>revenue from securities business</t>
+          <t>profit before tax</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>lãi từ các tài sản tài chính ghi nhận thông qua lãi lỗ fvtpl</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động 01 11</t>
+          <t>tổng lợi nhuận trước thuế ix x</t>
         </is>
       </c>
     </row>
@@ -3510,22 +3638,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>realised gains on disposals of fvtpl financial assets</t>
+          <t>provision for credit losses</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>gains from financial assets at fair value through profit or loss fvtpl</t>
+          <t>profit before tax</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>lãi bán các tài sản tài chính</t>
+          <t>chi phí dự phòng rủi ro tín dụng</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>lãi từ các tài sản tài chính ghi nhận thông qua lãi lỗ fvtpl</t>
+          <t>tổng lợi nhuận trước thuế ix x</t>
         </is>
       </c>
     </row>
@@ -3535,22 +3663,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>gains from revaluation of fvtpl financial assets</t>
+          <t>profit before tax</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>gains from financial assets at fair value through profit or loss fvtpl</t>
+          <t>net profit after tax</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>chênh lệch tăng đánh giá lại các tstc thông qua lãi lỗ</t>
+          <t>tổng lợi nhuận trước thuế ix x</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>lãi từ các tài sản tài chính ghi nhận thông qua lãi lỗ fvtpl</t>
+          <t>lợi nhuận sau thuế xi xii</t>
         </is>
       </c>
     </row>
@@ -3560,22 +3688,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>dividends and interest income from fvtpl financial assets</t>
+          <t>current corporate income tax expenses</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>gains from financial assets at fair value through profit or loss fvtpl</t>
+          <t>corporate income tax</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>cổ tức tiền lãi phát sinh từ tài sản tài chính pvtpl</t>
+          <t>chi phí thuế tndn hiện hành</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>lãi từ các tài sản tài chính ghi nhận thông qua lãi lỗ fvtpl</t>
+          <t>chi phí thuế tndn</t>
         </is>
       </c>
     </row>
@@ -3583,16 +3711,24 @@
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>deferred income tax expenses</t>
+        </is>
+      </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>gains from financial assets at fair value through profit or loss fvtpl</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>corporate income tax</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>chi phí thuế tndn hoãn lại</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>lãi từ các tài sản tài chính ghi nhận thông qua lãi lỗ fvtpl</t>
+          <t>chi phí thuế tndn</t>
         </is>
       </c>
     </row>
@@ -3602,22 +3738,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>gains from held to maturity investments</t>
+          <t>corporate income tax</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>revenue from securities business</t>
+          <t>net profit after tax</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>lãi từ các khoản đầu tư nắm giữ đến ngày đáo hạn htm</t>
+          <t>chi phí thuế tndn</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động 01 11</t>
+          <t>lợi nhuận sau thuế xi xii</t>
         </is>
       </c>
     </row>
@@ -3627,22 +3763,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>interest income from loans and receivables</t>
+          <t>net profit after tax</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>revenue from securities business</t>
+          <t>net profit atttributable to the equity holders of the bank</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>lãi từ các khoản cho vay và phải thu</t>
+          <t>lợi nhuận sau thuế xi xii</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động 01 11</t>
+          <t>lợi nhuận sau thuế của cổ đông của ngân hàng mẹ xiii xiv</t>
         </is>
       </c>
     </row>
@@ -3652,22 +3788,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>gains from available for sale financial assets afs</t>
+          <t>minority interest</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>revenue from securities business</t>
+          <t>net profit atttributable to the equity holders of the bank</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>lãi từ các tài sản tài chính sẵn sàng để bán afs</t>
+          <t>lợi ích của cổ đông thiểu số</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động 01 11</t>
+          <t>lợi nhuận sau thuế của cổ đông của ngân hàng mẹ xiii xiv</t>
         </is>
       </c>
     </row>
@@ -3677,22 +3813,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>gains from hedging derivative tools</t>
+          <t>net profit atttributable to the equity holders of the bank</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>revenue from securities business</t>
+          <t>net profit atttributable to the equity holders of the bank</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>lãi từ các công cụ phái sinh phòng ngừa rủi ro</t>
+          <t>lợi nhuận sau thuế của cổ đông của ngân hàng mẹ xiii xiv</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động 01 11</t>
+          <t>lợi nhuận sau thuế của cổ đông của ngân hàng mẹ xiii xiv</t>
         </is>
       </c>
     </row>
@@ -3702,22 +3838,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>revenue from brokerage services</t>
+          <t>earning per share vnd</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>revenue from securities business</t>
+          <t>earning per share vnd</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>doanh thu môi giới chứng khoán</t>
+          <t>lãi cơ bản trên cổ phiếu bctc vnð</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động 01 11</t>
+          <t>lãi cơ bản trên cổ phiếu bctc vnð</t>
         </is>
       </c>
     </row>
@@ -3727,22 +3863,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>revenue from securities investment and capital contribution</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>revenue from securities business</t>
+          <t>net insurance premium 03 01 02</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động đầu tư chứng khoán góp vốn</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động 01 11</t>
+          <t>doanh thu phí bảo hiểm thuần 03 01 02</t>
         </is>
       </c>
     </row>
@@ -3752,22 +3888,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>revenue from share issue guarantee and agency activities</t>
+          <t>gross written premium</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>revenue from securities business</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>doanh thu bảo lãnh phát hành đại lý phát hành chứng khoán</t>
+          <t>thu phí bảo hiểm gốc</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động 01 11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3777,22 +3913,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>revenue from investment portfolio management services</t>
+          <t>reinsurance premium assumed</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>revenue from securities business</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>doanh thu quản lý danh mục đầu tư cho người uỷ thác đầu tư</t>
+          <t>thu phí nhận tái bảo hiểm</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động 01 11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3802,22 +3938,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>revenue from investment advisory services</t>
+          <t>increase decrese in gross unearned premium reserve</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>revenue from securities business</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động tư vấn</t>
+          <t>tăng giảm dự phòng phí bảo hiểm gốc và nhận tái bảo hiểm</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động 01 11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3827,22 +3963,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>revenue from entrusted auction services</t>
+          <t>reinsurance premium ceded</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>revenue from securities business</t>
+          <t>net insurance premium 03 01 02</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động ủy thác đấu giá</t>
+          <t>phí nhượng tái bảo hiểm</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động 01 11</t>
+          <t>doanh thu phí bảo hiểm thuần 03 01 02</t>
         </is>
       </c>
     </row>
@@ -3852,22 +3988,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>revenue from securities custody services</t>
+          <t>reinsurance premium ceded</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>revenue from securities business</t>
+          <t>reinsurance premium ceded</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>doanh thu lưu ký chứng khoán</t>
+          <t>phí nhượng tái bảo hiểm</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động 01 11</t>
+          <t>phí nhượng tái bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -3877,22 +4013,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>revenue from property lease</t>
+          <t>increase decrease in ceded unearned premium reserve</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>revenue from securities business</t>
+          <t>reinsurance premium ceded</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>doanh thu cho thuê sử dụng tài sản</t>
+          <t>tăng giảm dự phòng phí nhượng tái bảo hiểm</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động 01 11</t>
+          <t>phí nhượng tái bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -3902,22 +4038,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>other revenue</t>
+          <t>deductions</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>revenue from securities business</t>
+          <t>net insurance premium 03 01 02</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>thu nhập hoạt động khác</t>
+          <t>các khoản giảm trừ</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động 01 11</t>
+          <t>doanh thu phí bảo hiểm thuần 03 01 02</t>
         </is>
       </c>
     </row>
@@ -3927,22 +4063,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
+          <t>premium deduction</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
           <t>deductions</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>net sales</t>
-        </is>
-      </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>các khoản giảm trừ doanh thu</t>
+          <t>giảm phí bảo hiểm</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>doanh thu thuần</t>
+          <t>các khoản giảm trừ</t>
         </is>
       </c>
     </row>
@@ -3952,22 +4088,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>revenue from securities business</t>
+          <t>premium returns</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>net profit from securities business</t>
+          <t>deductions</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động 01 11</t>
+          <t>hoàn phí bảo hiểm</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>kết quả hoạt động 20 50 40 60 61 62</t>
+          <t>các khoản giảm trừ</t>
         </is>
       </c>
     </row>
@@ -3977,22 +4113,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>net sales</t>
+          <t>others</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>gross profit</t>
+          <t>deductions</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>doanh thu thuần</t>
+          <t>các khoản giảm trừ khác</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>lợi nhuận gộp của hoạt động kinh doanh</t>
+          <t>các khoản giảm trừ</t>
         </is>
       </c>
     </row>
@@ -4002,22 +4138,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>increase decrease in unearned premium reserve and technical reserve</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>net insurance premium 03 01 02</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>chi phí hoạt động</t>
+          <t>tăng giảm dự phòng phí dự phòng toán học</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>doanh thu phí bảo hiểm thuần 03 01 02</t>
         </is>
       </c>
     </row>
@@ -4027,22 +4163,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>loss from financial assets at fair value through profit or loss fvtpl</t>
+          <t>net insurance premium 03 01 02</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>total net revenue from insurance business</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>lỗ các tài sản tài chính ghi nhận thông qua lỗ fvtpl</t>
+          <t>doanh thu phí bảo hiểm thuần 03 01 02</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>doanh thu thuần hđkd bh 10 03 04</t>
         </is>
       </c>
     </row>
@@ -4052,22 +4188,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>loss from disposals of financial assets at fvtpl</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>total net revenue from insurance business</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>lỗ bán các tài sản tài chính</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>doanh thu thuần hđkd bh 10 03 04</t>
         </is>
       </c>
     </row>
@@ -4077,22 +4213,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>loss from revaluation of financial assets at fvtpl</t>
+          <t>commissions on reinsurance ceded</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>chênh lệch giảm đánh giá lại các tstc thông qua lãi lỗ</t>
+          <t>thu hoa hồng nhượng tái bảo hiểm</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4102,22 +4238,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>transaction cost of acquisition of financial assets at fvtpl</t>
+          <t>other income</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>chi phí giao dịch mua các tài sản tài chính fvtpl</t>
+          <t>thu khác hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4125,16 +4261,24 @@
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" t="inlineStr"/>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>income on reinsurance assumed</t>
+        </is>
+      </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>operating expenses</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
+          <t>other income</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>thu khác nhận tái bảo hiểm</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>thu khác hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4144,22 +4288,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>loss from held to maturity investments</t>
+          <t>income on reinsurance ceded</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>other income</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>lỗ các khoản đầu tư năm giữ đến ngày đáo hạn htm</t>
+          <t>thu khác nhượng tái bảo hiểm</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>thu khác hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4169,22 +4313,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>interest expenses losses from loans and receivables</t>
+          <t>income from other activities</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>other income</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>chi phí lãi vay lỗ từ các khoản cho vay và phải thu</t>
+          <t>thu khác giám định đại lý</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>thu khác hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4194,22 +4338,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>selling loss available for sale financial assets afs</t>
+          <t>total net revenue from insurance business</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>gross insurance operating profit</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>4 lỗ bán các tài sản tài chính sẵn sàng để bán afs</t>
+          <t>doanh thu thuần hđkd bh 10 03 04</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>lợi nhuận gộp hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4219,22 +4363,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>loss from hedging derivative tools</t>
+          <t>revenue</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>total net revenue from insurance business</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>lỗ từ các tài sản tài chính phái sinh phòng ngừa rủi ro</t>
+          <t>doanh thuần bh và ccdv</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>doanh thu thuần hđkd bh 10 03 04</t>
         </is>
       </c>
     </row>
@@ -4244,22 +4388,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>expenses for proprietary trading activities</t>
+          <t>claim expenses on retained risks</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>total claim insurance expenses</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>chi phí hoạt động tự doanh</t>
+          <t>chi bồi thường</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
         </is>
       </c>
     </row>
@@ -4269,22 +4413,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>expenses for brokerage services</t>
+          <t>total claim expenses</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>cost of providing other goods and services</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>chi phí môi giới chứng khoán</t>
+          <t>tổng chi bồi thường</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>giá vốn cung cấp hàng hóa dịch vụ khác</t>
         </is>
       </c>
     </row>
@@ -4294,22 +4438,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>expenses for underwriting and issurance agency services</t>
+          <t>claim and maturity payment expenses</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>claim expenses on retained risks</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>chi phí hoạt động bảo lãnh đại lý phát hành chứng khoán</t>
+          <t>chi bồi thường bảo hiểm gốc trả tiền bảo hiểm</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>chi bồi thường</t>
         </is>
       </c>
     </row>
@@ -4319,22 +4463,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>expenses for financial advisory services</t>
+          <t>claim expenses for reinsurance assumed</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>claim expenses on retained risks</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>chi phí tư vấn</t>
+          <t>chi bồi thường nhận tái bảo hiểm trả tiền bảo hiểm</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>chi bồi thường</t>
         </is>
       </c>
     </row>
@@ -4344,22 +4488,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>expenses of auction and trust activities</t>
+          <t>deductions</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>claim expenses on retained risks</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>chi phí hoạt động đấu giá ủy thác</t>
+          <t>các khoản giảm trừ</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>chi bồi thường</t>
         </is>
       </c>
     </row>
@@ -4369,22 +4513,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>expenses for secutiries custodian services</t>
+          <t>subrogation recoveries</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>deductions</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>chi phí lưu ký chứng khoán</t>
+          <t>thu đòi người thứ ba bồi hoàn</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>các khoản giảm trừ</t>
         </is>
       </c>
     </row>
@@ -4394,22 +4538,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>other expenses</t>
+          <t>salvages</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>deductions</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>chi phí khác</t>
+          <t>thu hàng đã xử lý bồi thường 100</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>các khoản giảm trừ</t>
         </is>
       </c>
     </row>
@@ -4419,22 +4563,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>in which expenses fixing trading error other error</t>
+          <t>recoveries from reinsurance ceded</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>total claim insurance expenses</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>trong đó chi phí sửa lỗi giao dịch chứng khoán lỗi khác</t>
+          <t>thu bồi thường nhượng tái bảo hiểm</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
         </is>
       </c>
     </row>
@@ -4444,22 +4588,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>direct operating expenses</t>
+          <t>increase decrease in mathematical reserve</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>total claim insurance expenses</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>chi phí trực tiếp hoạt động kinh doanh chứng khoán</t>
+          <t>tăng giảm dự phòng toán học dành riêng bvh</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
         </is>
       </c>
     </row>
@@ -4469,22 +4613,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>securities provision expenses income from reversal of provision</t>
+          <t>increase decrease in claim reserves for direct insurance and reinsurance assumed</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>total claim insurance expenses</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>chi phí dự phòng chứng khoán</t>
+          <t>tăng giảm dự phòng bồi thường bảo hiểm gốc và nhận tái bảo hiểm</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
         </is>
       </c>
     </row>
@@ -4494,22 +4638,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>increase decrease in claim reserves related to reinsurance ceded</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>net profit from securities business</t>
+          <t>total claim insurance expenses</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>cộng chi phí hoạt động 21 33</t>
+          <t>tăng giảm dự phòng bồi thường nhượng tái bảo hiểm</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>kết quả hoạt động 20 50 40 60 61 62</t>
+          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
         </is>
       </c>
     </row>
@@ -4519,22 +4663,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>gross profit</t>
+          <t>increase in claim reserve</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>net profit from securities business</t>
+          <t>total direct insurance operating expenses</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>lợi nhuận gộp của hoạt động kinh doanh</t>
+          <t>tăng giảm dự phòng bồi thường</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>kết quả hoạt động 20 50 40 60 61 62</t>
+          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4544,22 +4688,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>financial income</t>
+          <t>total claim insurance expenses</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>total direct insurance operating expenses</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động tài chính</t>
+          <t>tổng chi bồi thường bảo hiểm 15 11 12 13 14</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4569,22 +4713,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>realized and unrealized gain from changes in foreign exchange rates</t>
+          <t>provision for catastrophe reserve</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>total financial income 41 44</t>
+          <t>total direct insurance operating expenses</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>chênh lệch lãi tỷ giá hối đoái đã và chưa thực hiện</t>
+          <t>tăng giảm dự phòng dao động lớn</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động tài chính 41 44</t>
+          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4594,22 +4738,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>dividends interest income from demand deposits</t>
+          <t>claim expenses using catastrophe reserve</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>total financial income 41 44</t>
+          <t>total direct insurance operating expenses</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>doanh thu dự thu cổ tức lãi tiền gửi không cố định phát sinh trong kỳ</t>
+          <t>chi bồi thường từ dự phòng dao động lớn</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động tài chính 41 44</t>
+          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4619,22 +4763,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>gains from disposal investments in subsidiaries associates joint ventures</t>
+          <t>other insurance operating expenses</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>total financial income 41 44</t>
+          <t>total direct insurance operating expenses</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>lãi bán thanh lý các khoản đầu tư vào công ty con liên kết liên doanh</t>
+          <t>chi khác hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động tài chính 41 44</t>
+          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4644,22 +4788,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>other income about investment</t>
+          <t>commission</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>total financial income 41 44</t>
+          <t>other insurance operating expenses</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>doanh thu khác về đầu tư</t>
+          <t>chi hoa hồng bảo hiểm</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động tài chính 41 44</t>
+          <t>chi khác hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4669,22 +4813,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>total financial income 41 44</t>
+          <t>other insurance operating expenses</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>net profit from securities business</t>
+          <t>other insurance operating expenses</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>cộng doanh thu hoạt động tài chính 41 44</t>
+          <t>chi phí khác hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>kết quả hoạt động 20 50 40 60 61 62</t>
+          <t>chi khác hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4694,22 +4838,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>financial expenses</t>
+          <t>other underwriting expenses</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>other insurance operating expenses</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>chí phí tài chính</t>
+          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>chi phí khác hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4719,22 +4863,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>realized and unrealized loss from changes in foreign exchange rates</t>
+          <t>damage assessment expenses</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>total financial expenses 51 54</t>
+          <t>other underwriting expenses</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>chênh lệch lỗ tỷ giá hối đoái đã và chưa thưc hiện</t>
+          <t>chi giám định tổn thất</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>cộng chi phí tài chính 51 54</t>
+          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
         </is>
       </c>
     </row>
@@ -4744,22 +4888,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>borrowing costs</t>
+          <t>subrogation recovery expenses</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>total financial expenses 51 54</t>
+          <t>other underwriting expenses</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>chi phí lãi vay</t>
+          <t>chi đòi người thứ 3</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>cộng chi phí tài chính 51 54</t>
+          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
         </is>
       </c>
     </row>
@@ -4769,22 +4913,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>loss from disposal investments in subsidiaries associates joint ventures</t>
+          <t>salvage expenses</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>total financial expenses 51 54</t>
+          <t>other underwriting expenses</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>lỗ bán thanh lý các khoản đầu tư vào công ty con liên kết liên doanh</t>
+          <t>chi xử lý hàng bồi thường 100</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>cộng chi phí tài chính 51 54</t>
+          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
         </is>
       </c>
     </row>
@@ -4794,22 +4938,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>other investment expenses</t>
+          <t>loss adjusting fee risk assessment</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>total financial expenses 51 54</t>
+          <t>other underwriting expenses</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>chi phí đầu tư khác</t>
+          <t>chi đánh giá rủi ro của đối tượng bảo hiểm</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>cộng chi phí tài chính 51 54</t>
+          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
         </is>
       </c>
     </row>
@@ -4819,22 +4963,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>total financial expenses 51 54</t>
+          <t>risk minimization expenses</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>net profit from securities business</t>
+          <t>other underwriting expenses</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>cộng chi phí tài chính 51 54</t>
+          <t>chi đề phòng hạn chế rủi ro tổn thất</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>kết quả hoạt động 20 50 40 60 61 62</t>
+          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
         </is>
       </c>
     </row>
@@ -4844,22 +4988,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>selling expenses</t>
+          <t>others</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>net profit from securities business</t>
+          <t>other underwriting expenses</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>chi phí bán hàng</t>
+          <t>chi khác</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>kết quả hoạt động 20 50 40 60 61 62</t>
+          <t>chi khác hoạt động kinh doanh bảo hiểm gốc</t>
         </is>
       </c>
     </row>
@@ -4869,22 +5013,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>general and administrative expenses</t>
+          <t>other reinsurance assumed expenses</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>net profit from securities business</t>
+          <t>other insurance operating expenses</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>chi phí quản lý công ty chứng khoán</t>
+          <t>chi khác hoạt động kinh doanh nhận tái bảo hiểm</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>kết quả hoạt động 20 50 40 60 61 62</t>
+          <t>chi phí khác hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4894,22 +5038,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>net profit from securities business</t>
+          <t>commission</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>profit before tax</t>
+          <t>other reinsurance assumed expenses</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>kết quả hoạt động 20 50 40 60 61 62</t>
+          <t>chi hoa hồng nhận tái bảo hiểm</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận kế toán trước thuế 70 80</t>
+          <t>chi khác hoạt động kinh doanh nhận tái bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4919,22 +5063,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>other income and expenses</t>
+          <t>loss adjusting fee risk assessment</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>other reinsurance assumed expenses</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>thu nhập khác và chi phí khác</t>
+          <t>chi đánh giá rủi ro của đối tượng bảo hiểm</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>chi khác hoạt động kinh doanh nhận tái bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4944,22 +5088,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>other incomes</t>
+          <t>others</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>other profit</t>
+          <t>other reinsurance assumed expenses</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>thu nhập khác</t>
+          <t>chi khác</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>cộng kết quả hoạt động khác 71 72</t>
+          <t>chi khác hoạt động kinh doanh nhận tái bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4969,22 +5113,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>other expenses</t>
+          <t>other reinsurance ceded expenses</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>other profit</t>
+          <t>other insurance operating expenses</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>chi phí khác</t>
+          <t>chi hoạt động nhượng tái bảo hiểm</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>cộng kết quả hoạt động khác 71 72</t>
+          <t>chi phí khác hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -4994,22 +5138,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>other profit</t>
+          <t>other direct operating expenses</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>profit before tax</t>
+          <t>other insurance operating expenses</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>cộng kết quả hoạt động khác 71 72</t>
+          <t>chi phí trực tiếp kinh doanh hoạt động khác</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận kế toán trước thuế 70 80</t>
+          <t>chi phí khác hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -5019,22 +5163,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>share of associates and joint ventures result</t>
+          <t>total direct insurance operating expenses</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>profit before tax</t>
+          <t>gross insurance operating profit</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>lãi lỗ từ công ty liên doanh liên kết</t>
+          <t>tổng chi phí hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận kế toán trước thuế 70 80</t>
+          <t>lợi nhuận gộp hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -5044,22 +5188,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>profit before tax</t>
+          <t>cost of providing other goods and services</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>net profit after tax</t>
+          <t>cost of providing other goods and services</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận kế toán trước thuế 70 80</t>
+          <t>giá vốn cung cấp hàng hóa dịch vụ khác</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>lợi nhuận kế toán sau thuế tndn 90 100</t>
+          <t>giá vốn cung cấp hàng hóa dịch vụ khác</t>
         </is>
       </c>
     </row>
@@ -5069,22 +5213,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>realised profit</t>
+          <t>gross insurance operating profit</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>operating profit</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>lợi nhuận đã thực hiện</t>
+          <t>lợi nhuận gộp hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -5094,22 +5238,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>unrealised profit</t>
+          <t>gross profit of providing other goods and services</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>cost of providing other goods and services</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>lợi nhuận chưa thực hiện</t>
+          <t>lợi nhuận gộp cung cấp hàng hóa dịch vụ khác</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>giá vốn cung cấp hàng hóa dịch vụ khác</t>
         </is>
       </c>
     </row>
@@ -5119,22 +5263,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>corporate income tax</t>
+          <t>profit from insurance operating</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>net profit after tax</t>
+          <t>total profit</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>chi phí thuế thu nhập doanh nghiệp</t>
+          <t>lợi nhuận thuần hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>lợi nhuận kế toán sau thuế tndn 90 100</t>
+          <t>tổng lợi nhuận kế toán trước thuế</t>
         </is>
       </c>
     </row>
@@ -5144,22 +5288,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>current corporate income tax expenses</t>
+          <t>revenue from properties investment</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>corporate income tax</t>
+          <t>profit from properties investment 22 20 21</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>chi phí thuế tndn hiện hành</t>
+          <t>doanh thu kinh doanh bất động sản đầu tư</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>chi phí thuế thu nhập doanh nghiệp</t>
+          <t>lợi nhuận từ hoạt động đầu tư bất động sản 22 20 21</t>
         </is>
       </c>
     </row>
@@ -5169,22 +5313,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>deferred income tax expenses</t>
+          <t>cost of properties investment</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>corporate income tax</t>
+          <t>profit from properties investment 22 20 21</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>chi phí thuế tndn hoãn lại</t>
+          <t>giá vốn bất động sản đầu tư</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>chi phí thuế thu nhập doanh nghiệp</t>
+          <t>lợi nhuận từ hoạt động đầu tư bất động sản 22 20 21</t>
         </is>
       </c>
     </row>
@@ -5194,22 +5338,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>net profit after tax</t>
+          <t>profit from properties investment 22 20 21</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2 profit after tax for shareholders of the parents company</t>
+          <t>operating profit</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>lợi nhuận kế toán sau thuế tndn 90 100</t>
+          <t>lợi nhuận từ hoạt động đầu tư bất động sản 22 20 21</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế phân bổ cho chủ sở hữu</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -5219,22 +5363,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2 profit after tax for shareholders of the parents company</t>
+          <t>revenue from financial activities</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2 profit after tax for shareholders of the parents company</t>
+          <t>profit form financial activities</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế phân bổ cho chủ sở hữu</t>
+          <t>doanh thu hoạt động tài chính</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế phân bổ cho chủ sở hữu</t>
+          <t>lợi nhuận gộp hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -5244,22 +5388,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>profit after tax taken from funds</t>
+          <t>expenses on financial activities</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>profit form financial activities</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế trích các quỹ quỹ dự trữ điều lệ quỹ dự phòng tài chính và rủi ro nghề nghiệp theo quy định của điều lệ công ty là</t>
+          <t>chi hoạt động tài chính</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>lợi nhuận gộp hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -5269,22 +5413,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1 minority interest</t>
+          <t>mathematical reserve for investment profit sharing</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2 profit after tax for shareholders of the parents company</t>
+          <t>expenses on financial activities</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần phân bổ cho lợi ích cổ đông không kiểm soát</t>
+          <t>dự phòng toán học trích lãi từ đầu tư</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế phân bổ cho chủ sở hữu</t>
+          <t>chi hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -5294,22 +5438,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>other comprehensive income after tax</t>
+          <t>dividend reserve</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>expenses on financial activities</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>thu nhập lỗ toàn diện khác sau thuế tndn</t>
+          <t>dự phòng chia lãi</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>chi hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -5319,22 +5463,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>gains loss from revaluation of held to maturity investments</t>
+          <t>others</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>expenses on financial activities</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>lãi lỗ từ đánh giá lại các khoản đầu tư giữ đến ngày đáo hạn</t>
+          <t>chi khác hoạt động tài chính</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>chi hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -5344,22 +5488,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>gains loss from revaluation of availables for sale financial assets</t>
+          <t>profit form financial activities</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>operating profit</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>lãi lỗ từ đánh giá lại các tài sản tài chính sẵn sàng để bán</t>
+          <t>lợi nhuận gộp hoạt động tài chính</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -5369,22 +5513,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>other total gains loss are dividend from investments in subsidiaries associates joint ventures</t>
+          <t>selling expenses</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>profit from insurance operating</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>lãi lỗ toàn diện khác được chia từ hoạt động đầu tư vào công ty con đầu tư liên kết liên doanh</t>
+          <t>chi phí bán hàng</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>lợi nhuận thuần hoạt động kinh doanh bảo hiểm</t>
         </is>
       </c>
     </row>
@@ -5394,22 +5538,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>gains loss from revaluation of derivative financial tools</t>
+          <t>administrative expenses</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>operating profit</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>lãi lỗ từ đánh giá lại các công cụ tài chính phái sinh</t>
+          <t>chi phí quản lý doanh nghiệp</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -5419,22 +5563,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>gains loss from realized and unrealized loss from changes in foreign exchange rates</t>
+          <t>operating profit</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>total profit</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>lãi lỗ chênh lệch tỷ giá của hoạt động tại nước ngoài</t>
+          <t>lợi nhuận thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>tổng lợi nhuận kế toán trước thuế</t>
         </is>
       </c>
     </row>
@@ -5444,22 +5588,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>gains loss from investments in subsidiaries associates joint ventures are not yet divided</t>
+          <t>other incomes</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>other profits</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>công ty liên kết liên doanh chưa chia</t>
+          <t>thu nhập khác</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>lợi nhuận khác</t>
         </is>
       </c>
     </row>
@@ -5469,22 +5613,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>gains loss from revaluation of derivative tools</t>
+          <t>other expenses</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>other profits</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>lãi lỗ đánh giá công cụ phái sinh</t>
+          <t>chi phí khác</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>lợi nhuận khác</t>
         </is>
       </c>
     </row>
@@ -5494,22 +5638,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>gains loss from revaluation fixed assets by reasonable value model</t>
+          <t>other profits</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>total profit</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>lãi lỗ đánh giá lại tài sản cố định theo mô hình giá trị hợp lý</t>
+          <t>lợi nhuận khác</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>tổng lợi nhuận kế toán trước thuế</t>
         </is>
       </c>
     </row>
@@ -5519,22 +5663,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>total other comprehensive income</t>
+          <t>share of profitin associates and joint ventures</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>total profit</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>tổng thu nhập toàn diện</t>
+          <t>phần lợi nhuận lỗ từ công ty liên kết liên doanh</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>tổng lợi nhuận kế toán trước thuế</t>
         </is>
       </c>
     </row>
@@ -5544,22 +5688,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>other comprehensive income attribute to the parent company s owners</t>
+          <t>total profit</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>profit after tax</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>thu nhập toàn diện phân bổ cho chủ sở hữu</t>
+          <t>tổng lợi nhuận kế toán trước thuế</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
     </row>
@@ -5569,22 +5713,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>other comprehensive income attribute to non controling interest</t>
+          <t>increasing or decreasing adjustments to define taxable profit</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>total profit before tax</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>thu nhập toàn diện phân bổ cho cổ đông không nắm quyền kiểm soát</t>
+          <t>các khoản điều chỉnh tăng hoặc giảm lợi nhuận để xác định lợi nhuận chịu thuế tndn</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>tổng lợi nhuận trước thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
     </row>
@@ -5594,22 +5738,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>net income appropriated to ordinary shareholders</t>
+          <t>total profit before tax</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>operating income</t>
+          <t>taxable profit</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>thu nhập thuần trên cổ phiếu phổ thông</t>
+          <t>tổng lợi nhuận trước thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>doanh thu hoạt động</t>
+          <t>lợi nhuận chịu thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
     </row>
@@ -5619,22 +5763,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>earning per share vnd</t>
+          <t>equalization reserve</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>earning per share vnd</t>
+          <t>profit after tax</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>lãi cơ bản trên cổ phiếu đồng 1 cổ phiếu vnð</t>
+          <t>dự phòng đảm bảo cân đối</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>lãi cơ bản trên cổ phiếu đồng 1 cổ phiếu vnð</t>
+          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
     </row>
@@ -5644,22 +5788,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>diluted earning per share</t>
+          <t>taxable profit</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>diluted earning per share</t>
+          <t>taxable profit</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>thu nhập pha loãng trên cổ phiếu đồng 1 cổ phiếu</t>
+          <t>lợi nhuận chịu thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>thu nhập pha loãng trên cổ phiếu đồng 1 cổ phiếu</t>
+          <t>lợi nhuận chịu thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
     </row>
@@ -5669,22 +5813,22 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>interest income and similar income</t>
+          <t>current corporate income tax expenses</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>net interest income</t>
+          <t>profit after tax</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>thu nhập lãi và các khoản thu nhập tương tự</t>
+          <t>chi phí thuế thu nhập hiện hành</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>thu nhập lãi thuần</t>
+          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
     </row>
@@ -5694,22 +5838,22 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>interest expense and similar expenses</t>
+          <t>deferred income tax expenses</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>net interest income</t>
+          <t>profit after tax</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>chi phí lãi và các chi phí tương tự</t>
+          <t>chi phí thuế thu nhập hoãn lại</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>thu nhập lãi thuần</t>
+          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
     </row>
@@ -5719,22 +5863,22 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>net interest income</t>
+          <t>profit after tax</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>operating profit before provision for credit losses</t>
+          <t>profit after tax for shareholders of the parent company</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>thu nhập lãi thuần</t>
+          <t>lợi nhuận sau thuế thu nhập doanh nghiệp</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
+          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
         </is>
       </c>
     </row>
@@ -5744,22 +5888,22 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>fee and commission income</t>
+          <t>minority interest</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>net fee and commission income</t>
+          <t>profit after tax for shareholders of the parent company</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>thu nhập từ hoạt động dịch vụ</t>
+          <t>lợi ích của cổ đông thiểu số</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>lãi lỗ thuần từ hoạt động dịch vụ</t>
+          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
         </is>
       </c>
     </row>
@@ -5769,22 +5913,22 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>fee and commission expenses</t>
+          <t>profit after tax for shareholders of the parent company</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>net fee and commission income</t>
+          <t>profit after tax for shareholders of the parent company</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>chi phí hoạt động dịch vụ</t>
+          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>lãi lỗ thuần từ hoạt động dịch vụ</t>
+          <t>lợi nhuận sau thuế của cổ đông của công ty mẹ</t>
         </is>
       </c>
     </row>
@@ -5794,22 +5938,22 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>net fee and commission income</t>
+          <t>1 earning per share vnd</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>operating profit before provision for credit losses</t>
+          <t>1 earning per share vnd</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>lãi lỗ thuần từ hoạt động dịch vụ</t>
+          <t>vnð</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
+          <t>vnð</t>
         </is>
       </c>
     </row>
@@ -5817,24 +5961,16 @@
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>net gain loss from foreign currencies and gold trading</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>operating profit before provision for credit losses</t>
-        </is>
-      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>lãi lỗ thuần từ hoạt động kinh doanh ngoại hối và vàng</t>
+          <t>1 doanh thu</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
+          <t>3 doanh thu thuần về hoạt động kinh doanh 10 01 02</t>
         </is>
       </c>
     </row>
@@ -5842,24 +5978,16 @@
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>net gain loss from trading securities</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>operating profit before provision for credit losses</t>
-        </is>
-      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
-          <t>lãi lỗ thuần từ mua bán chứng khoán kinh doanh</t>
+          <t>2 các khoản giảm trừ doanh thu</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
+          <t>3 doanh thu thuần về hoạt động kinh doanh 10 01 02</t>
         </is>
       </c>
     </row>
@@ -5867,24 +5995,16 @@
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>net gain loss from investment securities</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>operating profit before provision for credit losses</t>
-        </is>
-      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
-          <t>lãi lỗ thuần từ mua bán chứng khoán đầu tư</t>
+          <t>3 doanh thu thuần về hoạt động kinh doanh 10 01 02</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
+          <t>5 lợi nhuận gộp từ hoạt động kinh doanh 20 10 11</t>
         </is>
       </c>
     </row>
@@ -5892,24 +6012,16 @@
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>other income</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>net other income</t>
-        </is>
-      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>thu nhập từ hoạt động khác</t>
+          <t>4 chi phí hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>lãi lỗ thuần từ hoạt động khác</t>
+          <t>5 lợi nhuận gộp từ hoạt động kinh doanh 20 10 11</t>
         </is>
       </c>
     </row>
@@ -5917,24 +6029,16 @@
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>other expenses</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>net other income</t>
-        </is>
-      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>chi phí hoạt động khác</t>
+          <t>5 lợi nhuận gộp từ hoạt động kinh doanh 20 10 11</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>lãi lỗ thuần từ hoạt động khác</t>
+          <t>9 lợi nhuận thuần từ hoạt động kinh doanh 30 20 21 22 24 25</t>
         </is>
       </c>
     </row>
@@ -5942,24 +6046,16 @@
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>net other income</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>operating profit before provision for credit losses</t>
-        </is>
-      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
-          <t>lãi lỗ thuần từ hoạt động khác</t>
+          <t>6 doanh thu hoạt động tài chính</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
+          <t>9 lợi nhuận thuần từ hoạt động kinh doanh 30 20 21 22 24 25</t>
         </is>
       </c>
     </row>
@@ -5967,24 +6063,16 @@
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>income from capital contribution and long term investments</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>operating profit before provision for credit losses</t>
-        </is>
-      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>thu nhập từ góp vốn mua cổ phần</t>
+          <t>7 chi phí tài chính</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
+          <t>9 lợi nhuận thuần từ hoạt động kinh doanh 30 20 21 22 24 25</t>
         </is>
       </c>
     </row>
@@ -5992,24 +6080,16 @@
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>operating expenses</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>operating profit before provision for credit losses</t>
-        </is>
-      </c>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>chi phí hoạt động</t>
+          <t>trong đó chi phí lãi vay</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
+          <t>trong đó chi phí lãi vay</t>
         </is>
       </c>
     </row>
@@ -6017,24 +6097,16 @@
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>operating profit before provision for credit losses</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>profit before tax</t>
-        </is>
-      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng i ii iii iv v vi vii viii</t>
+          <t>8 chi phí quản lý doanh nghiệp</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận trước thuế ix x</t>
+          <t>9 lợi nhuận thuần từ hoạt động kinh doanh 30 20 21 22 24 25</t>
         </is>
       </c>
     </row>
@@ -6042,24 +6114,16 @@
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>provision for credit losses</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>profit before tax</t>
-        </is>
-      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>chi phí dự phòng rủi ro tín dụng</t>
+          <t>9 lợi nhuận thuần từ hoạt động kinh doanh 30 20 21 22 24 25</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận trước thuế ix x</t>
+          <t>13 tổng lợi nhuận kế toán trước thuế 50 30 40 41</t>
         </is>
       </c>
     </row>
@@ -6067,24 +6131,16 @@
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>profit before tax</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>net profit after tax</t>
-        </is>
-      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>tổng lợi nhuận trước thuế ix x</t>
+          <t>10 thu nhập khác</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế xi xii</t>
+          <t>12 lợi nhuận khác 40 31 32</t>
         </is>
       </c>
     </row>
@@ -6092,24 +6148,16 @@
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>current corporate income tax expenses</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>corporate income tax</t>
-        </is>
-      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>chi phí thuế tndn hiện hành</t>
+          <t>11 chi phí khác</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>chi phí thuế tndn</t>
+          <t>12 lợi nhuận khác 40 31 32</t>
         </is>
       </c>
     </row>
@@ -6117,24 +6165,16 @@
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>deferred income tax expenses</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>corporate income tax</t>
-        </is>
-      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
-          <t>chi phí thuế tndn hoãn lại</t>
+          <t>12 lợi nhuận khác 40 31 32</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>chi phí thuế tndn</t>
+          <t>13 tổng lợi nhuận kế toán trước thuế 50 30 40 41</t>
         </is>
       </c>
     </row>
@@ -6142,24 +6182,16 @@
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>corporate income tax</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>net profit after tax</t>
-        </is>
-      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
-          <t>chi phí thuế tndn</t>
+          <t>13 tổng lợi nhuận kế toán trước thuế 50 30 40 41</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế xi xii</t>
+          <t>16 lợi nhuận sau thuế thu nhập doanh nghiệp 60 50 51 52</t>
         </is>
       </c>
     </row>
@@ -6167,24 +6199,16 @@
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>net profit after tax</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>net profit atttributable to the equity holders of the bank</t>
-        </is>
-      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế xi xii</t>
+          <t>14 chi phí thuế tndn hiện hành</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế của cổ đông của ngân hàng mẹ xiii xiv</t>
+          <t>16 lợi nhuận sau thuế thu nhập doanh nghiệp 60 50 51 52</t>
         </is>
       </c>
     </row>
@@ -6192,24 +6216,16 @@
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>minority interest</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>net profit atttributable to the equity holders of the bank</t>
-        </is>
-      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
-          <t>lợi ích của cổ đông thiểu số</t>
+          <t>15 chi phí thuế tndn hoãn lại</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế của cổ đông của ngân hàng mẹ xiii xiv</t>
+          <t>16 lợi nhuận sau thuế thu nhập doanh nghiệp 60 50 51 52</t>
         </is>
       </c>
     </row>
@@ -6217,24 +6233,16 @@
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>net profit atttributable to the equity holders of the bank</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>net profit atttributable to the equity holders of the bank</t>
-        </is>
-      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế của cổ đông của ngân hàng mẹ xiii xiv</t>
+          <t>16 lợi nhuận sau thuế thu nhập doanh nghiệp 60 50 51 52</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>lợi nhuận sau thuế của cổ đông của ngân hàng mẹ xiii xiv</t>
+          <t>16 lợi nhuận sau thuế thu nhập doanh nghiệp 60 50 51 52</t>
         </is>
       </c>
     </row>
@@ -6242,24 +6250,16 @@
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>earning per share vnd</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>earning per share vnd</t>
-        </is>
-      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>lãi cơ bản trên cổ phiếu bctc vnð</t>
+          <t>lãi cơ bản trên cổ phiếu báo cáo tài chính</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>lãi cơ bản trên cổ phiếu bctc vnð</t>
+          <t>lãi cơ bản trên cổ phiếu báo cáo tài chính</t>
         </is>
       </c>
     </row>
